--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61A20E-CDFA-9647-8463-96B4F1D637AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04E18F-DF2A-494A-B917-3220E425482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4654" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4982" uniqueCount="1064">
   <si>
     <t>Amplicon</t>
   </si>
@@ -3155,17 +3155,131 @@
     <t>C2, C5</t>
   </si>
   <si>
-    <t>amplicon_name</t>
-  </si>
-  <si>
-    <t>serial_labcode</t>
+    <t>DDM1</t>
+  </si>
+  <si>
+    <t>DDM2</t>
+  </si>
+  <si>
+    <t>DDM3</t>
+  </si>
+  <si>
+    <t>DDM5</t>
+  </si>
+  <si>
+    <t>DDM6</t>
+  </si>
+  <si>
+    <t>DDM7</t>
+  </si>
+  <si>
+    <t>DDM8</t>
+  </si>
+  <si>
+    <t>DDM9</t>
+  </si>
+  <si>
+    <t>DDM10</t>
+  </si>
+  <si>
+    <t>DDM11</t>
+  </si>
+  <si>
+    <t>DDM12</t>
+  </si>
+  <si>
+    <t>DDM13</t>
+  </si>
+  <si>
+    <t>DDM14</t>
+  </si>
+  <si>
+    <t>DDM15</t>
+  </si>
+  <si>
+    <t>R7381</t>
+  </si>
+  <si>
+    <t>ST4_0</t>
+  </si>
+  <si>
+    <t>ST4_1</t>
+  </si>
+  <si>
+    <t>ST4_5</t>
+  </si>
+  <si>
+    <t>ST4_10</t>
+  </si>
+  <si>
+    <t>ST4_50</t>
+  </si>
+  <si>
+    <t>ST4_100</t>
+  </si>
+  <si>
+    <t>ST6_0</t>
+  </si>
+  <si>
+    <t>ST6_1</t>
+  </si>
+  <si>
+    <t>ST6_5</t>
+  </si>
+  <si>
+    <t>ST6_10</t>
+  </si>
+  <si>
+    <t>ST6_50</t>
+  </si>
+  <si>
+    <t>ST6_100</t>
+  </si>
+  <si>
+    <t>ST7_0</t>
+  </si>
+  <si>
+    <t>ST7_1</t>
+  </si>
+  <si>
+    <t>ST7_5</t>
+  </si>
+  <si>
+    <t>ST7_10</t>
+  </si>
+  <si>
+    <t>ST7_50</t>
+  </si>
+  <si>
+    <t>ST7_100</t>
+  </si>
+  <si>
+    <t>ST8_0</t>
+  </si>
+  <si>
+    <t>ST8_1</t>
+  </si>
+  <si>
+    <t>ST8_5</t>
+  </si>
+  <si>
+    <t>ST8_10</t>
+  </si>
+  <si>
+    <t>ST8_50</t>
+  </si>
+  <si>
+    <t>ST8_100</t>
+  </si>
+  <si>
+    <t>R7336</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3225,6 +3339,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3267,7 +3387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3285,6 +3405,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7306,19 +7429,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
-  <dimension ref="A1:G693"/>
+  <dimension ref="A1:G1422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="G376" sqref="G376:G380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
@@ -7334,14 +7458,8 @@
       <c r="E1" t="s">
         <v>382</v>
       </c>
-      <c r="F1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>383</v>
       </c>
@@ -7358,7 +7476,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>383</v>
       </c>
@@ -7375,7 +7493,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -7392,7 +7510,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>383</v>
       </c>
@@ -7409,7 +7527,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>383</v>
       </c>
@@ -7426,7 +7544,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -7443,7 +7561,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>393</v>
       </c>
@@ -7460,7 +7578,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>393</v>
       </c>
@@ -7477,7 +7595,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>393</v>
       </c>
@@ -7494,7 +7612,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>393</v>
       </c>
@@ -7511,7 +7629,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>393</v>
       </c>
@@ -7528,7 +7646,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>393</v>
       </c>
@@ -7545,7 +7663,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>393</v>
       </c>
@@ -7562,7 +7680,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>393</v>
       </c>
@@ -7579,7 +7697,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>393</v>
       </c>
@@ -13580,7 +13698,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>747</v>
       </c>
@@ -13597,7 +13715,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>747</v>
       </c>
@@ -13614,7 +13732,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>747</v>
       </c>
@@ -13631,7 +13749,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>747</v>
       </c>
@@ -13648,7 +13766,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>747</v>
       </c>
@@ -13665,7 +13783,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>747</v>
       </c>
@@ -13682,7 +13800,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>747</v>
       </c>
@@ -13699,7 +13817,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>769</v>
       </c>
@@ -13715,8 +13833,11 @@
       <c r="E376" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G376" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>769</v>
       </c>
@@ -13732,8 +13853,11 @@
       <c r="E377" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G377" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>769</v>
       </c>
@@ -13749,8 +13873,11 @@
       <c r="E378" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G378" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>769</v>
       </c>
@@ -13766,8 +13893,11 @@
       <c r="E379" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G379" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>769</v>
       </c>
@@ -13783,8 +13913,11 @@
       <c r="E380" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G380" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>769</v>
       </c>
@@ -13800,8 +13933,11 @@
       <c r="E381" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G381" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>769</v>
       </c>
@@ -13817,8 +13953,11 @@
       <c r="E382" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G382" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>769</v>
       </c>
@@ -13834,8 +13973,11 @@
       <c r="E383" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G383" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>769</v>
       </c>
@@ -13851,8 +13993,11 @@
       <c r="E384" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G384" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>769</v>
       </c>
@@ -13868,8 +14013,11 @@
       <c r="E385" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G385" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>769</v>
       </c>
@@ -13885,8 +14033,11 @@
       <c r="E386" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G386" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -13902,8 +14053,11 @@
       <c r="E387" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G387" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>769</v>
       </c>
@@ -13919,8 +14073,11 @@
       <c r="E388" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G388" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>769</v>
       </c>
@@ -13936,8 +14093,11 @@
       <c r="E389" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G389" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>769</v>
       </c>
@@ -13953,8 +14113,11 @@
       <c r="E390" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G390" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>769</v>
       </c>
@@ -13970,8 +14133,11 @@
       <c r="E391" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G391" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>769</v>
       </c>
@@ -13987,8 +14153,11 @@
       <c r="E392" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G392" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>769</v>
       </c>
@@ -14004,8 +14173,11 @@
       <c r="E393" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G393" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>769</v>
       </c>
@@ -14021,8 +14193,11 @@
       <c r="E394" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G394" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>769</v>
       </c>
@@ -14038,8 +14213,11 @@
       <c r="E395" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G395" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>769</v>
       </c>
@@ -14055,8 +14233,11 @@
       <c r="E396" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G396" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>769</v>
       </c>
@@ -14072,8 +14253,11 @@
       <c r="E397" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G397" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>769</v>
       </c>
@@ -14089,8 +14273,11 @@
       <c r="E398" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G398" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>769</v>
       </c>
@@ -14106,8 +14293,11 @@
       <c r="E399" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G399" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>769</v>
       </c>
@@ -14123,8 +14313,11 @@
       <c r="E400" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G400" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>769</v>
       </c>
@@ -14140,8 +14333,11 @@
       <c r="E401" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G401" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>769</v>
       </c>
@@ -14157,8 +14353,11 @@
       <c r="E402" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G402" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>769</v>
       </c>
@@ -14174,8 +14373,11 @@
       <c r="E403" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G403" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>769</v>
       </c>
@@ -14191,8 +14393,11 @@
       <c r="E404" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G404" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>769</v>
       </c>
@@ -14208,8 +14413,11 @@
       <c r="E405" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G405" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>769</v>
       </c>
@@ -14225,8 +14433,11 @@
       <c r="E406" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G406" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>769</v>
       </c>
@@ -14242,8 +14453,11 @@
       <c r="E407" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G407" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>769</v>
       </c>
@@ -14259,8 +14473,11 @@
       <c r="E408" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G408" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>769</v>
       </c>
@@ -14276,8 +14493,11 @@
       <c r="E409" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G409" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>769</v>
       </c>
@@ -14293,8 +14513,11 @@
       <c r="E410" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G410" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>769</v>
       </c>
@@ -14310,8 +14533,11 @@
       <c r="E411" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G411" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>769</v>
       </c>
@@ -14327,8 +14553,11 @@
       <c r="E412" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G412" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>769</v>
       </c>
@@ -14344,8 +14573,11 @@
       <c r="E413" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G413" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>769</v>
       </c>
@@ -14361,8 +14593,11 @@
       <c r="E414" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G414" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>769</v>
       </c>
@@ -14378,8 +14613,11 @@
       <c r="E415" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G415" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>769</v>
       </c>
@@ -14396,7 +14634,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>769</v>
       </c>
@@ -14413,7 +14651,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>769</v>
       </c>
@@ -14430,7 +14668,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>769</v>
       </c>
@@ -14447,7 +14685,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>769</v>
       </c>
@@ -14464,7 +14702,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>817</v>
       </c>
@@ -14480,8 +14718,11 @@
       <c r="E421" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G421" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>817</v>
       </c>
@@ -14497,8 +14738,11 @@
       <c r="E422" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G422" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>817</v>
       </c>
@@ -14514,8 +14758,11 @@
       <c r="E423" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G423" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>817</v>
       </c>
@@ -14531,8 +14778,11 @@
       <c r="E424" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G424" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>817</v>
       </c>
@@ -14548,8 +14798,11 @@
       <c r="E425" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G425" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>817</v>
       </c>
@@ -14565,8 +14818,11 @@
       <c r="E426" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G426" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>817</v>
       </c>
@@ -14582,8 +14838,11 @@
       <c r="E427" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G427" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>817</v>
       </c>
@@ -14599,8 +14858,11 @@
       <c r="E428" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G428" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>817</v>
       </c>
@@ -14616,8 +14878,11 @@
       <c r="E429" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G429" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>817</v>
       </c>
@@ -14633,8 +14898,11 @@
       <c r="E430" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G430" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>817</v>
       </c>
@@ -14650,8 +14918,11 @@
       <c r="E431" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G431" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>817</v>
       </c>
@@ -14667,8 +14938,11 @@
       <c r="E432" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G432" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>817</v>
       </c>
@@ -14684,8 +14958,11 @@
       <c r="E433" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G433" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>817</v>
       </c>
@@ -14701,8 +14978,11 @@
       <c r="E434" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G434" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>817</v>
       </c>
@@ -14718,8 +14998,11 @@
       <c r="E435" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G435" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>817</v>
       </c>
@@ -14735,8 +15018,11 @@
       <c r="E436" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G436" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>817</v>
       </c>
@@ -14752,8 +15038,11 @@
       <c r="E437" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G437" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>817</v>
       </c>
@@ -14769,8 +15058,11 @@
       <c r="E438" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G438" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>817</v>
       </c>
@@ -14786,8 +15078,11 @@
       <c r="E439" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G439" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>817</v>
       </c>
@@ -14803,8 +15098,11 @@
       <c r="E440" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G440" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>817</v>
       </c>
@@ -14820,8 +15118,11 @@
       <c r="E441" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G441" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>817</v>
       </c>
@@ -14837,8 +15138,11 @@
       <c r="E442" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G442" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>817</v>
       </c>
@@ -14854,8 +15158,11 @@
       <c r="E443" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G443" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>817</v>
       </c>
@@ -14871,8 +15178,11 @@
       <c r="E444" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G444" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>817</v>
       </c>
@@ -14888,8 +15198,11 @@
       <c r="E445" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G445" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>817</v>
       </c>
@@ -14905,8 +15218,11 @@
       <c r="E446" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G446" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>817</v>
       </c>
@@ -14922,8 +15238,11 @@
       <c r="E447" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G447" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>817</v>
       </c>
@@ -14939,8 +15258,11 @@
       <c r="E448" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G448" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>817</v>
       </c>
@@ -14956,8 +15278,11 @@
       <c r="E449" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G449" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>817</v>
       </c>
@@ -14973,8 +15298,11 @@
       <c r="E450" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G450" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>817</v>
       </c>
@@ -14990,8 +15318,11 @@
       <c r="E451" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G451" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>817</v>
       </c>
@@ -15007,8 +15338,11 @@
       <c r="E452" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G452" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>817</v>
       </c>
@@ -15024,8 +15358,11 @@
       <c r="E453" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G453" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>817</v>
       </c>
@@ -15041,8 +15378,11 @@
       <c r="E454" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G454" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>817</v>
       </c>
@@ -15058,8 +15398,11 @@
       <c r="E455" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G455" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>817</v>
       </c>
@@ -15075,8 +15418,11 @@
       <c r="E456" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G456" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>817</v>
       </c>
@@ -15092,8 +15438,11 @@
       <c r="E457" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G457" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>817</v>
       </c>
@@ -15109,8 +15458,11 @@
       <c r="E458" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G458" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>817</v>
       </c>
@@ -15126,8 +15478,11 @@
       <c r="E459" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G459" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>817</v>
       </c>
@@ -15143,8 +15498,11 @@
       <c r="E460" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G460" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>817</v>
       </c>
@@ -15160,8 +15518,11 @@
       <c r="E461" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G461" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>817</v>
       </c>
@@ -15177,8 +15538,11 @@
       <c r="E462" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G462" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>817</v>
       </c>
@@ -15194,8 +15558,11 @@
       <c r="E463" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G463" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>817</v>
       </c>
@@ -15211,8 +15578,11 @@
       <c r="E464" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G464" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>817</v>
       </c>
@@ -15228,8 +15598,11 @@
       <c r="E465" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G465" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>863</v>
       </c>
@@ -15245,8 +15618,14 @@
       <c r="E466" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F466" t="s">
+        <v>24</v>
+      </c>
+      <c r="G466" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>863</v>
       </c>
@@ -15262,8 +15641,14 @@
       <c r="E467" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F467" t="s">
+        <v>24</v>
+      </c>
+      <c r="G467" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>863</v>
       </c>
@@ -15279,8 +15664,14 @@
       <c r="E468" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F468" t="s">
+        <v>24</v>
+      </c>
+      <c r="G468" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>863</v>
       </c>
@@ -15296,8 +15687,14 @@
       <c r="E469" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F469" t="s">
+        <v>24</v>
+      </c>
+      <c r="G469" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>863</v>
       </c>
@@ -15313,8 +15710,14 @@
       <c r="E470" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F470" t="s">
+        <v>24</v>
+      </c>
+      <c r="G470" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>863</v>
       </c>
@@ -15330,8 +15733,14 @@
       <c r="E471" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F471" t="s">
+        <v>37</v>
+      </c>
+      <c r="G471" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>863</v>
       </c>
@@ -15347,8 +15756,14 @@
       <c r="E472" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F472" t="s">
+        <v>37</v>
+      </c>
+      <c r="G472" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>863</v>
       </c>
@@ -15364,8 +15779,14 @@
       <c r="E473" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F473" t="s">
+        <v>37</v>
+      </c>
+      <c r="G473" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>863</v>
       </c>
@@ -15381,8 +15802,14 @@
       <c r="E474" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F474" t="s">
+        <v>37</v>
+      </c>
+      <c r="G474" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>863</v>
       </c>
@@ -15398,8 +15825,14 @@
       <c r="E475" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F475" t="s">
+        <v>37</v>
+      </c>
+      <c r="G475" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>863</v>
       </c>
@@ -15415,8 +15848,14 @@
       <c r="E476" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F476" t="s">
+        <v>46</v>
+      </c>
+      <c r="G476" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>863</v>
       </c>
@@ -15432,8 +15871,14 @@
       <c r="E477" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F477" t="s">
+        <v>46</v>
+      </c>
+      <c r="G477" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>863</v>
       </c>
@@ -15449,8 +15894,14 @@
       <c r="E478" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F478" t="s">
+        <v>46</v>
+      </c>
+      <c r="G478" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>863</v>
       </c>
@@ -15466,8 +15917,14 @@
       <c r="E479" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F479" t="s">
+        <v>46</v>
+      </c>
+      <c r="G479" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>863</v>
       </c>
@@ -15482,6 +15939,12 @@
       </c>
       <c r="E480" t="s">
         <v>387</v>
+      </c>
+      <c r="F480" t="s">
+        <v>46</v>
+      </c>
+      <c r="G480" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
@@ -15500,6 +15963,12 @@
       <c r="E481" t="s">
         <v>387</v>
       </c>
+      <c r="F481" t="s">
+        <v>52</v>
+      </c>
+      <c r="G481" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -15517,6 +15986,12 @@
       <c r="E482" t="s">
         <v>387</v>
       </c>
+      <c r="F482" t="s">
+        <v>52</v>
+      </c>
+      <c r="G482" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
@@ -15534,6 +16009,12 @@
       <c r="E483" t="s">
         <v>387</v>
       </c>
+      <c r="F483" t="s">
+        <v>52</v>
+      </c>
+      <c r="G483" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
@@ -15551,6 +16032,12 @@
       <c r="E484" t="s">
         <v>387</v>
       </c>
+      <c r="F484" t="s">
+        <v>52</v>
+      </c>
+      <c r="G484" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
@@ -15568,6 +16055,12 @@
       <c r="E485" t="s">
         <v>387</v>
       </c>
+      <c r="F485" t="s">
+        <v>52</v>
+      </c>
+      <c r="G485" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
@@ -20334,6 +20827,826 @@
       <c r="G693" t="s">
         <v>962</v>
       </c>
+    </row>
+    <row r="694" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>952</v>
+      </c>
+      <c r="B694" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C694" t="s">
+        <v>771</v>
+      </c>
+      <c r="D694" t="s">
+        <v>923</v>
+      </c>
+      <c r="E694" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>952</v>
+      </c>
+      <c r="B695" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C695" t="s">
+        <v>771</v>
+      </c>
+      <c r="D695" t="s">
+        <v>923</v>
+      </c>
+      <c r="E695" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>952</v>
+      </c>
+      <c r="B696" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C696" t="s">
+        <v>771</v>
+      </c>
+      <c r="D696" t="s">
+        <v>923</v>
+      </c>
+      <c r="E696" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>952</v>
+      </c>
+      <c r="B697" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C697" t="s">
+        <v>771</v>
+      </c>
+      <c r="D697" t="s">
+        <v>923</v>
+      </c>
+      <c r="E697" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>952</v>
+      </c>
+      <c r="B698" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C698" t="s">
+        <v>771</v>
+      </c>
+      <c r="D698" t="s">
+        <v>923</v>
+      </c>
+      <c r="E698" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>952</v>
+      </c>
+      <c r="B699" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C699" t="s">
+        <v>771</v>
+      </c>
+      <c r="D699" t="s">
+        <v>923</v>
+      </c>
+      <c r="E699" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>952</v>
+      </c>
+      <c r="B700" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C700" t="s">
+        <v>771</v>
+      </c>
+      <c r="D700" t="s">
+        <v>923</v>
+      </c>
+      <c r="E700" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>952</v>
+      </c>
+      <c r="B701" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C701" t="s">
+        <v>771</v>
+      </c>
+      <c r="D701" t="s">
+        <v>923</v>
+      </c>
+      <c r="E701" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>952</v>
+      </c>
+      <c r="B702" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C702" t="s">
+        <v>771</v>
+      </c>
+      <c r="D702" t="s">
+        <v>923</v>
+      </c>
+      <c r="E702" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>952</v>
+      </c>
+      <c r="B703" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C703" t="s">
+        <v>771</v>
+      </c>
+      <c r="D703" t="s">
+        <v>923</v>
+      </c>
+      <c r="E703" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>952</v>
+      </c>
+      <c r="B704" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C704" t="s">
+        <v>771</v>
+      </c>
+      <c r="D704" t="s">
+        <v>923</v>
+      </c>
+      <c r="E704" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>952</v>
+      </c>
+      <c r="B705" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C705" t="s">
+        <v>771</v>
+      </c>
+      <c r="D705" t="s">
+        <v>923</v>
+      </c>
+      <c r="E705" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>952</v>
+      </c>
+      <c r="B706" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C706" t="s">
+        <v>771</v>
+      </c>
+      <c r="D706" t="s">
+        <v>923</v>
+      </c>
+      <c r="E706" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>952</v>
+      </c>
+      <c r="B707" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C707" t="s">
+        <v>771</v>
+      </c>
+      <c r="D707" t="s">
+        <v>923</v>
+      </c>
+      <c r="E707" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B708" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C708" t="s">
+        <v>771</v>
+      </c>
+      <c r="D708" t="s">
+        <v>923</v>
+      </c>
+      <c r="E708" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B709" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C709" t="s">
+        <v>771</v>
+      </c>
+      <c r="D709" t="s">
+        <v>923</v>
+      </c>
+      <c r="E709" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B710" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C710" t="s">
+        <v>771</v>
+      </c>
+      <c r="D710" t="s">
+        <v>923</v>
+      </c>
+      <c r="E710" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B711" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C711" t="s">
+        <v>771</v>
+      </c>
+      <c r="D711" t="s">
+        <v>923</v>
+      </c>
+      <c r="E711" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B712" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C712" t="s">
+        <v>771</v>
+      </c>
+      <c r="D712" t="s">
+        <v>923</v>
+      </c>
+      <c r="E712" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B713" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C713" t="s">
+        <v>771</v>
+      </c>
+      <c r="D713" t="s">
+        <v>923</v>
+      </c>
+      <c r="E713" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B714" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C714" t="s">
+        <v>771</v>
+      </c>
+      <c r="D714" t="s">
+        <v>923</v>
+      </c>
+      <c r="E714" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B715" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C715" t="s">
+        <v>771</v>
+      </c>
+      <c r="D715" t="s">
+        <v>923</v>
+      </c>
+      <c r="E715" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B716" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C716" t="s">
+        <v>771</v>
+      </c>
+      <c r="D716" t="s">
+        <v>923</v>
+      </c>
+      <c r="E716" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B717" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C717" t="s">
+        <v>771</v>
+      </c>
+      <c r="D717" t="s">
+        <v>923</v>
+      </c>
+      <c r="E717" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B718" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C718" t="s">
+        <v>771</v>
+      </c>
+      <c r="D718" t="s">
+        <v>923</v>
+      </c>
+      <c r="E718" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B719" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C719" t="s">
+        <v>771</v>
+      </c>
+      <c r="D719" t="s">
+        <v>923</v>
+      </c>
+      <c r="E719" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B720" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C720" t="s">
+        <v>771</v>
+      </c>
+      <c r="D720" t="s">
+        <v>923</v>
+      </c>
+      <c r="E720" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B721" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C721" t="s">
+        <v>771</v>
+      </c>
+      <c r="D721" t="s">
+        <v>923</v>
+      </c>
+      <c r="E721" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B722" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C722" t="s">
+        <v>771</v>
+      </c>
+      <c r="D722" t="s">
+        <v>923</v>
+      </c>
+      <c r="E722" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B723" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C723" t="s">
+        <v>771</v>
+      </c>
+      <c r="D723" t="s">
+        <v>923</v>
+      </c>
+      <c r="E723" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B724" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C724" t="s">
+        <v>771</v>
+      </c>
+      <c r="D724" t="s">
+        <v>923</v>
+      </c>
+      <c r="E724" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B725" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C725" t="s">
+        <v>771</v>
+      </c>
+      <c r="D725" t="s">
+        <v>923</v>
+      </c>
+      <c r="E725" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B726" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C726" t="s">
+        <v>771</v>
+      </c>
+      <c r="D726" t="s">
+        <v>923</v>
+      </c>
+      <c r="E726" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B727" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C727" t="s">
+        <v>771</v>
+      </c>
+      <c r="D727" t="s">
+        <v>923</v>
+      </c>
+      <c r="E727" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B728" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C728" t="s">
+        <v>771</v>
+      </c>
+      <c r="D728" t="s">
+        <v>923</v>
+      </c>
+      <c r="E728" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B729" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C729" t="s">
+        <v>771</v>
+      </c>
+      <c r="D729" t="s">
+        <v>923</v>
+      </c>
+      <c r="E729" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B730" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C730" t="s">
+        <v>771</v>
+      </c>
+      <c r="D730" t="s">
+        <v>923</v>
+      </c>
+      <c r="E730" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B731" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C731" t="s">
+        <v>771</v>
+      </c>
+      <c r="D731" t="s">
+        <v>923</v>
+      </c>
+      <c r="E731" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B732" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="C732" t="s">
+        <v>771</v>
+      </c>
+      <c r="D732" t="s">
+        <v>923</v>
+      </c>
+      <c r="E732" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B733" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="C733" t="s">
+        <v>771</v>
+      </c>
+      <c r="D733" t="s">
+        <v>923</v>
+      </c>
+      <c r="E733" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B734" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="C734" t="s">
+        <v>771</v>
+      </c>
+      <c r="D734" t="s">
+        <v>923</v>
+      </c>
+      <c r="E734" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1382" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1382" s="13"/>
+    </row>
+    <row r="1383" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1383" s="13"/>
+    </row>
+    <row r="1384" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1384" s="13"/>
+    </row>
+    <row r="1385" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1385" s="13"/>
+    </row>
+    <row r="1386" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1386" s="13"/>
+    </row>
+    <row r="1387" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1387" s="13"/>
+    </row>
+    <row r="1388" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1388" s="13"/>
+    </row>
+    <row r="1389" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1389" s="13"/>
+    </row>
+    <row r="1390" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1390" s="13"/>
+    </row>
+    <row r="1391" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1391" s="13"/>
+    </row>
+    <row r="1392" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1392" s="13"/>
+    </row>
+    <row r="1393" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1393" s="13"/>
+    </row>
+    <row r="1394" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1394" s="13"/>
+    </row>
+    <row r="1395" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1395" s="13"/>
+    </row>
+    <row r="1396" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1396" s="13"/>
+    </row>
+    <row r="1397" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1397" s="13"/>
+    </row>
+    <row r="1398" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1398" s="13"/>
+    </row>
+    <row r="1399" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1399" s="13"/>
+    </row>
+    <row r="1400" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1400" s="13"/>
+    </row>
+    <row r="1401" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1401" s="13"/>
+    </row>
+    <row r="1402" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1402" s="13"/>
+    </row>
+    <row r="1403" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1403" s="13"/>
+    </row>
+    <row r="1404" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1404" s="13"/>
+    </row>
+    <row r="1405" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1405" s="13"/>
+    </row>
+    <row r="1406" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1406" s="13"/>
+    </row>
+    <row r="1407" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1407" s="13"/>
+    </row>
+    <row r="1408" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1408" s="13"/>
+    </row>
+    <row r="1409" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1409" s="13"/>
+    </row>
+    <row r="1410" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1410" s="13"/>
+    </row>
+    <row r="1411" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1411" s="13"/>
+    </row>
+    <row r="1412" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1412" s="13"/>
+    </row>
+    <row r="1413" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1413" s="13"/>
+    </row>
+    <row r="1414" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1414" s="13"/>
+    </row>
+    <row r="1415" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1415" s="13"/>
+    </row>
+    <row r="1416" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1416" s="13"/>
+    </row>
+    <row r="1417" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1417" s="13"/>
+    </row>
+    <row r="1418" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1418" s="13"/>
+    </row>
+    <row r="1419" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1419" s="13"/>
+    </row>
+    <row r="1420" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1420" s="13"/>
+    </row>
+    <row r="1421" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1421" s="13"/>
+    </row>
+    <row r="1422" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1422" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04E18F-DF2A-494A-B917-3220E425482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2E3525-766B-5044-837F-F7F160EEEB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4982" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5207" uniqueCount="1105">
   <si>
     <t>Amplicon</t>
   </si>
@@ -3273,6 +3273,129 @@
   </si>
   <si>
     <t>R7336</t>
+  </si>
+  <si>
+    <t>ST1_0</t>
+  </si>
+  <si>
+    <t>ST1_1</t>
+  </si>
+  <si>
+    <t>ST1_5</t>
+  </si>
+  <si>
+    <t>ST1_10</t>
+  </si>
+  <si>
+    <t>ST1_50</t>
+  </si>
+  <si>
+    <t>ST1_100</t>
+  </si>
+  <si>
+    <t>ST2_0</t>
+  </si>
+  <si>
+    <t>ST2_1</t>
+  </si>
+  <si>
+    <t>ST2_5</t>
+  </si>
+  <si>
+    <t>ST2_10</t>
+  </si>
+  <si>
+    <t>ST2_50</t>
+  </si>
+  <si>
+    <t>ST2_100</t>
+  </si>
+  <si>
+    <t>ST11_0</t>
+  </si>
+  <si>
+    <t>ST11_1</t>
+  </si>
+  <si>
+    <t>ST11_5</t>
+  </si>
+  <si>
+    <t>ST11_10</t>
+  </si>
+  <si>
+    <t>ST11_50</t>
+  </si>
+  <si>
+    <t>ST11_100</t>
+  </si>
+  <si>
+    <t>ST12_0</t>
+  </si>
+  <si>
+    <t>ST12_1</t>
+  </si>
+  <si>
+    <t>ST12_5</t>
+  </si>
+  <si>
+    <t>ST12_10</t>
+  </si>
+  <si>
+    <t>ST12_50</t>
+  </si>
+  <si>
+    <t>ST12_100</t>
+  </si>
+  <si>
+    <t>R7434</t>
+  </si>
+  <si>
+    <t>TMPC4S1</t>
+  </si>
+  <si>
+    <t>H1, H3</t>
+  </si>
+  <si>
+    <t>TMPC4S2</t>
+  </si>
+  <si>
+    <t>TMPC4S3</t>
+  </si>
+  <si>
+    <t>TMPC4S5</t>
+  </si>
+  <si>
+    <t>TMPC4S6</t>
+  </si>
+  <si>
+    <t>TMPC4S7</t>
+  </si>
+  <si>
+    <t>TMPL7S1</t>
+  </si>
+  <si>
+    <t>L1, L2, L3</t>
+  </si>
+  <si>
+    <t>TMPL7S2</t>
+  </si>
+  <si>
+    <t>TMPL7S3</t>
+  </si>
+  <si>
+    <t>TMPL7S4</t>
+  </si>
+  <si>
+    <t>TMPL7S5</t>
+  </si>
+  <si>
+    <t>TMPL7S6</t>
+  </si>
+  <si>
+    <t>TMPL7S7</t>
+  </si>
+  <si>
+    <t>TMCONTROL146</t>
   </si>
 </sst>
 </file>
@@ -3387,7 +3510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3407,6 +3530,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7431,8 +7557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
   <dimension ref="A1:G1422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="G376" sqref="G376:G380"/>
+    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
+      <selection activeCell="D754" sqref="A1:G773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21525,6 +21651,759 @@
         <v>924</v>
       </c>
     </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B735" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C735" t="s">
+        <v>771</v>
+      </c>
+      <c r="D735" t="s">
+        <v>923</v>
+      </c>
+      <c r="E735" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B736" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C736" t="s">
+        <v>771</v>
+      </c>
+      <c r="D736" t="s">
+        <v>923</v>
+      </c>
+      <c r="E736" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B737" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C737" t="s">
+        <v>771</v>
+      </c>
+      <c r="D737" t="s">
+        <v>923</v>
+      </c>
+      <c r="E737" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B738" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C738" t="s">
+        <v>771</v>
+      </c>
+      <c r="D738" t="s">
+        <v>923</v>
+      </c>
+      <c r="E738" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B739" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C739" t="s">
+        <v>771</v>
+      </c>
+      <c r="D739" t="s">
+        <v>923</v>
+      </c>
+      <c r="E739" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B740" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C740" t="s">
+        <v>771</v>
+      </c>
+      <c r="D740" t="s">
+        <v>923</v>
+      </c>
+      <c r="E740" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B741" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C741" t="s">
+        <v>771</v>
+      </c>
+      <c r="D741" t="s">
+        <v>923</v>
+      </c>
+      <c r="E741" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B742" s="14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C742" t="s">
+        <v>771</v>
+      </c>
+      <c r="D742" t="s">
+        <v>923</v>
+      </c>
+      <c r="E742" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B743" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C743" t="s">
+        <v>771</v>
+      </c>
+      <c r="D743" t="s">
+        <v>923</v>
+      </c>
+      <c r="E743" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B744" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C744" t="s">
+        <v>771</v>
+      </c>
+      <c r="D744" t="s">
+        <v>923</v>
+      </c>
+      <c r="E744" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B745" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C745" t="s">
+        <v>771</v>
+      </c>
+      <c r="D745" t="s">
+        <v>923</v>
+      </c>
+      <c r="E745" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B746" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C746" t="s">
+        <v>771</v>
+      </c>
+      <c r="D746" t="s">
+        <v>923</v>
+      </c>
+      <c r="E746" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B747" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C747" t="s">
+        <v>771</v>
+      </c>
+      <c r="D747" t="s">
+        <v>923</v>
+      </c>
+      <c r="E747" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B748" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C748" t="s">
+        <v>771</v>
+      </c>
+      <c r="D748" t="s">
+        <v>923</v>
+      </c>
+      <c r="E748" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B749" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C749" t="s">
+        <v>771</v>
+      </c>
+      <c r="D749" t="s">
+        <v>923</v>
+      </c>
+      <c r="E749" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B750" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C750" t="s">
+        <v>771</v>
+      </c>
+      <c r="D750" t="s">
+        <v>923</v>
+      </c>
+      <c r="E750" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B751" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C751" t="s">
+        <v>771</v>
+      </c>
+      <c r="D751" t="s">
+        <v>923</v>
+      </c>
+      <c r="E751" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B752" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C752" t="s">
+        <v>771</v>
+      </c>
+      <c r="D752" t="s">
+        <v>923</v>
+      </c>
+      <c r="E752" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B753" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C753" t="s">
+        <v>771</v>
+      </c>
+      <c r="D753" t="s">
+        <v>923</v>
+      </c>
+      <c r="E753" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B754" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C754" t="s">
+        <v>771</v>
+      </c>
+      <c r="D754" t="s">
+        <v>923</v>
+      </c>
+      <c r="E754" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B755" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C755" t="s">
+        <v>771</v>
+      </c>
+      <c r="D755" t="s">
+        <v>923</v>
+      </c>
+      <c r="E755" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B756" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C756" t="s">
+        <v>771</v>
+      </c>
+      <c r="D756" t="s">
+        <v>923</v>
+      </c>
+      <c r="E756" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B757" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C757" t="s">
+        <v>771</v>
+      </c>
+      <c r="D757" t="s">
+        <v>923</v>
+      </c>
+      <c r="E757" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B758" s="14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C758" t="s">
+        <v>771</v>
+      </c>
+      <c r="D758" t="s">
+        <v>923</v>
+      </c>
+      <c r="E758" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C759" t="s">
+        <v>771</v>
+      </c>
+      <c r="D759" t="s">
+        <v>885</v>
+      </c>
+      <c r="E759" t="s">
+        <v>387</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G759" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C760" t="s">
+        <v>771</v>
+      </c>
+      <c r="D760" t="s">
+        <v>885</v>
+      </c>
+      <c r="E760" t="s">
+        <v>387</v>
+      </c>
+      <c r="F760" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G760" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C761" t="s">
+        <v>771</v>
+      </c>
+      <c r="D761" t="s">
+        <v>885</v>
+      </c>
+      <c r="E761" t="s">
+        <v>387</v>
+      </c>
+      <c r="F761" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G761" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B762" t="s">
+        <v>957</v>
+      </c>
+      <c r="C762" t="s">
+        <v>771</v>
+      </c>
+      <c r="D762" t="s">
+        <v>885</v>
+      </c>
+      <c r="E762" t="s">
+        <v>387</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G762" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C763" t="s">
+        <v>771</v>
+      </c>
+      <c r="D763" t="s">
+        <v>885</v>
+      </c>
+      <c r="E763" t="s">
+        <v>387</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G763" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C764" t="s">
+        <v>771</v>
+      </c>
+      <c r="D764" t="s">
+        <v>885</v>
+      </c>
+      <c r="E764" t="s">
+        <v>387</v>
+      </c>
+      <c r="F764" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G764" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C765" t="s">
+        <v>771</v>
+      </c>
+      <c r="D765" t="s">
+        <v>885</v>
+      </c>
+      <c r="E765" t="s">
+        <v>387</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G765" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C766" t="s">
+        <v>771</v>
+      </c>
+      <c r="D766" t="s">
+        <v>772</v>
+      </c>
+      <c r="E766" t="s">
+        <v>387</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G766" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C767" t="s">
+        <v>771</v>
+      </c>
+      <c r="D767" t="s">
+        <v>772</v>
+      </c>
+      <c r="E767" t="s">
+        <v>387</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G767" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C768" t="s">
+        <v>771</v>
+      </c>
+      <c r="D768" t="s">
+        <v>772</v>
+      </c>
+      <c r="E768" t="s">
+        <v>387</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G768" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C769" t="s">
+        <v>771</v>
+      </c>
+      <c r="D769" t="s">
+        <v>772</v>
+      </c>
+      <c r="E769" t="s">
+        <v>387</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G769" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C770" t="s">
+        <v>771</v>
+      </c>
+      <c r="D770" t="s">
+        <v>772</v>
+      </c>
+      <c r="E770" t="s">
+        <v>387</v>
+      </c>
+      <c r="F770" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G770" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C771" t="s">
+        <v>771</v>
+      </c>
+      <c r="D771" t="s">
+        <v>772</v>
+      </c>
+      <c r="E771" t="s">
+        <v>387</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G771" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C772" t="s">
+        <v>771</v>
+      </c>
+      <c r="D772" t="s">
+        <v>772</v>
+      </c>
+      <c r="E772" t="s">
+        <v>387</v>
+      </c>
+      <c r="F772" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G772" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C773" t="s">
+        <v>771</v>
+      </c>
+      <c r="D773" t="s">
+        <v>772</v>
+      </c>
+      <c r="E773" t="s">
+        <v>387</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G773" t="s">
+        <v>1020</v>
+      </c>
+    </row>
     <row r="1382" spans="5:5" ht="16" x14ac:dyDescent="0.2">
       <c r="E1382" s="13"/>
     </row>

--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354DFBEA-43D7-B247-AF77-CB3BF0E15ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD89DFDD-0FB0-7545-857A-44148A9B1388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lung_panel_version_1.1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5295" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="1123">
   <si>
     <t>Amplicon</t>
   </si>
@@ -3392,6 +3392,57 @@
   </si>
   <si>
     <t xml:space="preserve">chr10:42384864-42385033 </t>
+  </si>
+  <si>
+    <t>R7477</t>
+  </si>
+  <si>
+    <t>TMPC3P</t>
+  </si>
+  <si>
+    <t>TMPC3NO</t>
+  </si>
+  <si>
+    <t>R7489</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>H2, S2</t>
+  </si>
+  <si>
+    <t>TMV1</t>
+  </si>
+  <si>
+    <t>TMV2</t>
+  </si>
+  <si>
+    <t>TMV3</t>
+  </si>
+  <si>
+    <t>TMV4</t>
+  </si>
+  <si>
+    <t>R7483</t>
+  </si>
+  <si>
+    <t>DMR4</t>
+  </si>
+  <si>
+    <t>DMR5</t>
+  </si>
+  <si>
+    <t>DMR6</t>
+  </si>
+  <si>
+    <t>DMR7</t>
+  </si>
+  <si>
+    <t>D1F1,D1F2,D1F5,D1F6,D2F2,D2F3,D3F2,D7F1,D7F2,D9F4,D10F1,D6F2,D6F3,D4F1</t>
+  </si>
+  <si>
+    <t>D1F1,D1F2,D1F5,D1F6,D2F2,D2F3,D3F2,D7F1,D7F2,D9F4,D10F1,D6F2,D6F3</t>
   </si>
 </sst>
 </file>
@@ -3940,7 +3991,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5364,7 +5415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6581,7 +6634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -6931,7 +6984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB87DAB-575F-4D14-809B-7B1AFA103D8C}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -7615,8 +7668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
   <dimension ref="A1:G1419"/>
   <sheetViews>
-    <sheetView topLeftCell="A546" workbookViewId="0">
-      <selection activeCell="C568" sqref="C568:C569"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="D542" sqref="D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17777,7 +17830,7 @@
         <v>764</v>
       </c>
       <c r="D541" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="E541" t="s">
         <v>380</v>
@@ -22665,6 +22718,412 @@
       <c r="G770" t="s">
         <v>1013</v>
       </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B771" t="s">
+        <v>946</v>
+      </c>
+      <c r="C771" t="s">
+        <v>378</v>
+      </c>
+      <c r="D771" t="s">
+        <v>379</v>
+      </c>
+      <c r="E771" t="s">
+        <v>380</v>
+      </c>
+      <c r="F771" t="s">
+        <v>947</v>
+      </c>
+      <c r="G771" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B772" t="s">
+        <v>948</v>
+      </c>
+      <c r="C772" t="s">
+        <v>378</v>
+      </c>
+      <c r="D772" t="s">
+        <v>379</v>
+      </c>
+      <c r="E772" t="s">
+        <v>380</v>
+      </c>
+      <c r="F772" t="s">
+        <v>947</v>
+      </c>
+      <c r="G772" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B773" t="s">
+        <v>949</v>
+      </c>
+      <c r="C773" t="s">
+        <v>378</v>
+      </c>
+      <c r="D773" t="s">
+        <v>379</v>
+      </c>
+      <c r="E773" t="s">
+        <v>380</v>
+      </c>
+      <c r="F773" t="s">
+        <v>947</v>
+      </c>
+      <c r="G773" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B774" t="s">
+        <v>950</v>
+      </c>
+      <c r="C774" t="s">
+        <v>378</v>
+      </c>
+      <c r="D774" t="s">
+        <v>379</v>
+      </c>
+      <c r="E774" t="s">
+        <v>380</v>
+      </c>
+      <c r="F774" t="s">
+        <v>947</v>
+      </c>
+      <c r="G774" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B775" t="s">
+        <v>951</v>
+      </c>
+      <c r="C775" t="s">
+        <v>378</v>
+      </c>
+      <c r="D775" t="s">
+        <v>379</v>
+      </c>
+      <c r="E775" t="s">
+        <v>380</v>
+      </c>
+      <c r="F775" t="s">
+        <v>947</v>
+      </c>
+      <c r="G775" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B776" t="s">
+        <v>952</v>
+      </c>
+      <c r="C776" t="s">
+        <v>378</v>
+      </c>
+      <c r="D776" t="s">
+        <v>379</v>
+      </c>
+      <c r="E776" t="s">
+        <v>380</v>
+      </c>
+      <c r="F776" t="s">
+        <v>947</v>
+      </c>
+      <c r="G776" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B777" t="s">
+        <v>954</v>
+      </c>
+      <c r="C777" t="s">
+        <v>378</v>
+      </c>
+      <c r="D777" t="s">
+        <v>379</v>
+      </c>
+      <c r="E777" t="s">
+        <v>380</v>
+      </c>
+      <c r="F777" t="s">
+        <v>947</v>
+      </c>
+      <c r="G777" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C778" t="s">
+        <v>378</v>
+      </c>
+      <c r="D778" t="s">
+        <v>379</v>
+      </c>
+      <c r="E778" t="s">
+        <v>380</v>
+      </c>
+      <c r="F778" t="s">
+        <v>947</v>
+      </c>
+      <c r="G778" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C779" t="s">
+        <v>378</v>
+      </c>
+      <c r="D779" t="s">
+        <v>379</v>
+      </c>
+      <c r="E779" t="s">
+        <v>380</v>
+      </c>
+      <c r="F779" t="s">
+        <v>947</v>
+      </c>
+      <c r="G779" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C780" t="s">
+        <v>378</v>
+      </c>
+      <c r="D780" t="s">
+        <v>379</v>
+      </c>
+      <c r="E780" t="s">
+        <v>380</v>
+      </c>
+      <c r="F780" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G780" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C781" t="s">
+        <v>378</v>
+      </c>
+      <c r="D781" t="s">
+        <v>379</v>
+      </c>
+      <c r="E781" t="s">
+        <v>380</v>
+      </c>
+      <c r="F781" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G781" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C782" t="s">
+        <v>378</v>
+      </c>
+      <c r="D782" t="s">
+        <v>379</v>
+      </c>
+      <c r="E782" t="s">
+        <v>380</v>
+      </c>
+      <c r="F782" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G782" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C783" t="s">
+        <v>378</v>
+      </c>
+      <c r="D783" t="s">
+        <v>379</v>
+      </c>
+      <c r="E783" t="s">
+        <v>380</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G783" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C784" t="s">
+        <v>378</v>
+      </c>
+      <c r="D784" t="s">
+        <v>379</v>
+      </c>
+      <c r="E784" t="s">
+        <v>380</v>
+      </c>
+      <c r="F784" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G784" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C785" t="s">
+        <v>764</v>
+      </c>
+      <c r="D785" t="s">
+        <v>916</v>
+      </c>
+      <c r="E785" t="s">
+        <v>917</v>
+      </c>
+      <c r="F785" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G785" s="8"/>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C786" t="s">
+        <v>764</v>
+      </c>
+      <c r="D786" t="s">
+        <v>916</v>
+      </c>
+      <c r="E786" t="s">
+        <v>917</v>
+      </c>
+      <c r="F786" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G786" s="8"/>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C787" t="s">
+        <v>764</v>
+      </c>
+      <c r="D787" t="s">
+        <v>916</v>
+      </c>
+      <c r="E787" t="s">
+        <v>917</v>
+      </c>
+      <c r="F787" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G787" s="8"/>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C788" t="s">
+        <v>764</v>
+      </c>
+      <c r="D788" t="s">
+        <v>916</v>
+      </c>
+      <c r="E788" t="s">
+        <v>917</v>
+      </c>
+      <c r="F788" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G788" s="8"/>
     </row>
     <row r="1379" spans="5:5" ht="16" x14ac:dyDescent="0.2">
       <c r="E1379" s="13"/>

--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD89DFDD-0FB0-7545-857A-44148A9B1388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAE14B2-3579-EC41-BC5E-49C6A3AFFC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lung_panel_version_1.1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5711" uniqueCount="1141">
   <si>
     <t>Amplicon</t>
   </si>
@@ -3443,6 +3443,60 @@
   </si>
   <si>
     <t>D1F1,D1F2,D1F5,D1F6,D2F2,D2F3,D3F2,D7F1,D7F2,D9F4,D10F1,D6F2,D6F3</t>
+  </si>
+  <si>
+    <t>R7512</t>
+  </si>
+  <si>
+    <t>TMPC5S1</t>
+  </si>
+  <si>
+    <t>TMPC5S2</t>
+  </si>
+  <si>
+    <t>TMPC5S3</t>
+  </si>
+  <si>
+    <t>TMPC5S4</t>
+  </si>
+  <si>
+    <t>TMPC5S5</t>
+  </si>
+  <si>
+    <t>TMPC5S6</t>
+  </si>
+  <si>
+    <t>TMPC5S7</t>
+  </si>
+  <si>
+    <t>TMPC6S1</t>
+  </si>
+  <si>
+    <t>TMPC6S2</t>
+  </si>
+  <si>
+    <t>TMPC6S3</t>
+  </si>
+  <si>
+    <t>TMPC6S4</t>
+  </si>
+  <si>
+    <t>TMPC6S5</t>
+  </si>
+  <si>
+    <t>TMPC6S6</t>
+  </si>
+  <si>
+    <t>TMPC6S7</t>
+  </si>
+  <si>
+    <t>R7519</t>
+  </si>
+  <si>
+    <t>TML4S6</t>
+  </si>
+  <si>
+    <t>TML4S7</t>
   </si>
 </sst>
 </file>
@@ -7668,8 +7722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
   <dimension ref="A1:G1419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="D542" sqref="D542"/>
+    <sheetView tabSelected="1" topLeftCell="A771" workbookViewId="0">
+      <selection activeCell="K793" sqref="K793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23125,6 +23179,986 @@
       </c>
       <c r="G788" s="8"/>
     </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C789" t="s">
+        <v>378</v>
+      </c>
+      <c r="D789" t="s">
+        <v>379</v>
+      </c>
+      <c r="E789" t="s">
+        <v>380</v>
+      </c>
+      <c r="F789" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C790" t="s">
+        <v>378</v>
+      </c>
+      <c r="D790" t="s">
+        <v>379</v>
+      </c>
+      <c r="E790" t="s">
+        <v>380</v>
+      </c>
+      <c r="F790" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C791" t="s">
+        <v>378</v>
+      </c>
+      <c r="D791" t="s">
+        <v>379</v>
+      </c>
+      <c r="E791" t="s">
+        <v>380</v>
+      </c>
+      <c r="F791" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C792" t="s">
+        <v>378</v>
+      </c>
+      <c r="D792" t="s">
+        <v>379</v>
+      </c>
+      <c r="E792" t="s">
+        <v>380</v>
+      </c>
+      <c r="F792" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C793" t="s">
+        <v>378</v>
+      </c>
+      <c r="D793" t="s">
+        <v>379</v>
+      </c>
+      <c r="E793" t="s">
+        <v>380</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C794" t="s">
+        <v>378</v>
+      </c>
+      <c r="D794" t="s">
+        <v>379</v>
+      </c>
+      <c r="E794" t="s">
+        <v>380</v>
+      </c>
+      <c r="F794" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C795" t="s">
+        <v>378</v>
+      </c>
+      <c r="D795" t="s">
+        <v>379</v>
+      </c>
+      <c r="E795" t="s">
+        <v>380</v>
+      </c>
+      <c r="F795" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C796" t="s">
+        <v>378</v>
+      </c>
+      <c r="D796" t="s">
+        <v>379</v>
+      </c>
+      <c r="E796" t="s">
+        <v>380</v>
+      </c>
+      <c r="F796" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C797" t="s">
+        <v>378</v>
+      </c>
+      <c r="D797" t="s">
+        <v>379</v>
+      </c>
+      <c r="E797" t="s">
+        <v>380</v>
+      </c>
+      <c r="F797" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C798" t="s">
+        <v>378</v>
+      </c>
+      <c r="D798" t="s">
+        <v>379</v>
+      </c>
+      <c r="E798" t="s">
+        <v>380</v>
+      </c>
+      <c r="F798" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C799" t="s">
+        <v>378</v>
+      </c>
+      <c r="D799" t="s">
+        <v>379</v>
+      </c>
+      <c r="E799" t="s">
+        <v>380</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C800" t="s">
+        <v>378</v>
+      </c>
+      <c r="D800" t="s">
+        <v>379</v>
+      </c>
+      <c r="E800" t="s">
+        <v>380</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C801" t="s">
+        <v>378</v>
+      </c>
+      <c r="D801" t="s">
+        <v>379</v>
+      </c>
+      <c r="E801" t="s">
+        <v>380</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C802" t="s">
+        <v>378</v>
+      </c>
+      <c r="D802" t="s">
+        <v>379</v>
+      </c>
+      <c r="E802" t="s">
+        <v>380</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B803" t="s">
+        <v>533</v>
+      </c>
+      <c r="C803" t="s">
+        <v>378</v>
+      </c>
+      <c r="D803" t="s">
+        <v>379</v>
+      </c>
+      <c r="E803" t="s">
+        <v>380</v>
+      </c>
+      <c r="F803" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B804" t="s">
+        <v>534</v>
+      </c>
+      <c r="C804" t="s">
+        <v>378</v>
+      </c>
+      <c r="D804" t="s">
+        <v>379</v>
+      </c>
+      <c r="E804" t="s">
+        <v>380</v>
+      </c>
+      <c r="F804" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B805" t="s">
+        <v>535</v>
+      </c>
+      <c r="C805" t="s">
+        <v>378</v>
+      </c>
+      <c r="D805" t="s">
+        <v>379</v>
+      </c>
+      <c r="E805" t="s">
+        <v>380</v>
+      </c>
+      <c r="F805" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B806" t="s">
+        <v>536</v>
+      </c>
+      <c r="C806" t="s">
+        <v>378</v>
+      </c>
+      <c r="D806" t="s">
+        <v>379</v>
+      </c>
+      <c r="E806" t="s">
+        <v>380</v>
+      </c>
+      <c r="F806" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B807" t="s">
+        <v>537</v>
+      </c>
+      <c r="C807" t="s">
+        <v>378</v>
+      </c>
+      <c r="D807" t="s">
+        <v>379</v>
+      </c>
+      <c r="E807" t="s">
+        <v>380</v>
+      </c>
+      <c r="F807" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B808" t="s">
+        <v>538</v>
+      </c>
+      <c r="C808" t="s">
+        <v>378</v>
+      </c>
+      <c r="D808" t="s">
+        <v>379</v>
+      </c>
+      <c r="E808" t="s">
+        <v>380</v>
+      </c>
+      <c r="F808" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B809" t="s">
+        <v>539</v>
+      </c>
+      <c r="C809" t="s">
+        <v>378</v>
+      </c>
+      <c r="D809" t="s">
+        <v>379</v>
+      </c>
+      <c r="E809" t="s">
+        <v>380</v>
+      </c>
+      <c r="F809" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B810" t="s">
+        <v>763</v>
+      </c>
+      <c r="C810" t="s">
+        <v>378</v>
+      </c>
+      <c r="D810" t="s">
+        <v>765</v>
+      </c>
+      <c r="E810" t="s">
+        <v>380</v>
+      </c>
+      <c r="F810" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B811" t="s">
+        <v>766</v>
+      </c>
+      <c r="C811" t="s">
+        <v>378</v>
+      </c>
+      <c r="D811" t="s">
+        <v>765</v>
+      </c>
+      <c r="E811" t="s">
+        <v>380</v>
+      </c>
+      <c r="F811" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B812" t="s">
+        <v>767</v>
+      </c>
+      <c r="C812" t="s">
+        <v>378</v>
+      </c>
+      <c r="D812" t="s">
+        <v>765</v>
+      </c>
+      <c r="E812" t="s">
+        <v>380</v>
+      </c>
+      <c r="F812" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B813" t="s">
+        <v>768</v>
+      </c>
+      <c r="C813" t="s">
+        <v>378</v>
+      </c>
+      <c r="D813" t="s">
+        <v>765</v>
+      </c>
+      <c r="E813" t="s">
+        <v>380</v>
+      </c>
+      <c r="F813" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B814" t="s">
+        <v>769</v>
+      </c>
+      <c r="C814" t="s">
+        <v>378</v>
+      </c>
+      <c r="D814" t="s">
+        <v>765</v>
+      </c>
+      <c r="E814" t="s">
+        <v>380</v>
+      </c>
+      <c r="F814" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B815" t="s">
+        <v>921</v>
+      </c>
+      <c r="C815" t="s">
+        <v>378</v>
+      </c>
+      <c r="D815" t="s">
+        <v>765</v>
+      </c>
+      <c r="E815" t="s">
+        <v>380</v>
+      </c>
+      <c r="F815" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B816" t="s">
+        <v>930</v>
+      </c>
+      <c r="C816" t="s">
+        <v>378</v>
+      </c>
+      <c r="D816" t="s">
+        <v>765</v>
+      </c>
+      <c r="E816" t="s">
+        <v>380</v>
+      </c>
+      <c r="F816" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B817" t="s">
+        <v>770</v>
+      </c>
+      <c r="C817" t="s">
+        <v>378</v>
+      </c>
+      <c r="D817" t="s">
+        <v>765</v>
+      </c>
+      <c r="E817" t="s">
+        <v>380</v>
+      </c>
+      <c r="F817" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B818" t="s">
+        <v>771</v>
+      </c>
+      <c r="C818" t="s">
+        <v>378</v>
+      </c>
+      <c r="D818" t="s">
+        <v>765</v>
+      </c>
+      <c r="E818" t="s">
+        <v>380</v>
+      </c>
+      <c r="F818" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B819" t="s">
+        <v>772</v>
+      </c>
+      <c r="C819" t="s">
+        <v>378</v>
+      </c>
+      <c r="D819" t="s">
+        <v>765</v>
+      </c>
+      <c r="E819" t="s">
+        <v>380</v>
+      </c>
+      <c r="F819" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B820" t="s">
+        <v>773</v>
+      </c>
+      <c r="C820" t="s">
+        <v>378</v>
+      </c>
+      <c r="D820" t="s">
+        <v>765</v>
+      </c>
+      <c r="E820" t="s">
+        <v>380</v>
+      </c>
+      <c r="F820" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B821" t="s">
+        <v>774</v>
+      </c>
+      <c r="C821" t="s">
+        <v>378</v>
+      </c>
+      <c r="D821" t="s">
+        <v>765</v>
+      </c>
+      <c r="E821" t="s">
+        <v>380</v>
+      </c>
+      <c r="F821" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B822" t="s">
+        <v>922</v>
+      </c>
+      <c r="C822" t="s">
+        <v>378</v>
+      </c>
+      <c r="D822" t="s">
+        <v>765</v>
+      </c>
+      <c r="E822" t="s">
+        <v>380</v>
+      </c>
+      <c r="F822" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B823" t="s">
+        <v>931</v>
+      </c>
+      <c r="C823" t="s">
+        <v>378</v>
+      </c>
+      <c r="D823" t="s">
+        <v>765</v>
+      </c>
+      <c r="E823" t="s">
+        <v>380</v>
+      </c>
+      <c r="F823" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B824" t="s">
+        <v>775</v>
+      </c>
+      <c r="C824" t="s">
+        <v>378</v>
+      </c>
+      <c r="D824" t="s">
+        <v>765</v>
+      </c>
+      <c r="E824" t="s">
+        <v>380</v>
+      </c>
+      <c r="F824" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B825" t="s">
+        <v>776</v>
+      </c>
+      <c r="C825" t="s">
+        <v>378</v>
+      </c>
+      <c r="D825" t="s">
+        <v>765</v>
+      </c>
+      <c r="E825" t="s">
+        <v>380</v>
+      </c>
+      <c r="F825" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B826" t="s">
+        <v>777</v>
+      </c>
+      <c r="C826" t="s">
+        <v>378</v>
+      </c>
+      <c r="D826" t="s">
+        <v>765</v>
+      </c>
+      <c r="E826" t="s">
+        <v>380</v>
+      </c>
+      <c r="F826" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B827" t="s">
+        <v>778</v>
+      </c>
+      <c r="C827" t="s">
+        <v>378</v>
+      </c>
+      <c r="D827" t="s">
+        <v>765</v>
+      </c>
+      <c r="E827" t="s">
+        <v>380</v>
+      </c>
+      <c r="F827" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B828" t="s">
+        <v>779</v>
+      </c>
+      <c r="C828" t="s">
+        <v>378</v>
+      </c>
+      <c r="D828" t="s">
+        <v>765</v>
+      </c>
+      <c r="E828" t="s">
+        <v>380</v>
+      </c>
+      <c r="F828" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B829" t="s">
+        <v>923</v>
+      </c>
+      <c r="C829" t="s">
+        <v>378</v>
+      </c>
+      <c r="D829" t="s">
+        <v>765</v>
+      </c>
+      <c r="E829" t="s">
+        <v>380</v>
+      </c>
+      <c r="F829" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B830" t="s">
+        <v>932</v>
+      </c>
+      <c r="C830" t="s">
+        <v>378</v>
+      </c>
+      <c r="D830" t="s">
+        <v>765</v>
+      </c>
+      <c r="E830" t="s">
+        <v>380</v>
+      </c>
+      <c r="F830" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B831" t="s">
+        <v>811</v>
+      </c>
+      <c r="C831" t="s">
+        <v>378</v>
+      </c>
+      <c r="D831" t="s">
+        <v>765</v>
+      </c>
+      <c r="E831" t="s">
+        <v>380</v>
+      </c>
+      <c r="F831" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B832" t="s">
+        <v>812</v>
+      </c>
+      <c r="C832" t="s">
+        <v>378</v>
+      </c>
+      <c r="D832" t="s">
+        <v>765</v>
+      </c>
+      <c r="E832" t="s">
+        <v>380</v>
+      </c>
+      <c r="F832" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B833" t="s">
+        <v>813</v>
+      </c>
+      <c r="C833" t="s">
+        <v>378</v>
+      </c>
+      <c r="D833" t="s">
+        <v>765</v>
+      </c>
+      <c r="E833" t="s">
+        <v>380</v>
+      </c>
+      <c r="F833" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B834" t="s">
+        <v>814</v>
+      </c>
+      <c r="C834" t="s">
+        <v>378</v>
+      </c>
+      <c r="D834" t="s">
+        <v>765</v>
+      </c>
+      <c r="E834" t="s">
+        <v>380</v>
+      </c>
+      <c r="F834" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B835" t="s">
+        <v>815</v>
+      </c>
+      <c r="C835" t="s">
+        <v>378</v>
+      </c>
+      <c r="D835" t="s">
+        <v>765</v>
+      </c>
+      <c r="E835" t="s">
+        <v>380</v>
+      </c>
+      <c r="F835" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C836" t="s">
+        <v>378</v>
+      </c>
+      <c r="D836" t="s">
+        <v>765</v>
+      </c>
+      <c r="E836" t="s">
+        <v>380</v>
+      </c>
+      <c r="F836" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C837" t="s">
+        <v>378</v>
+      </c>
+      <c r="D837" t="s">
+        <v>765</v>
+      </c>
+      <c r="E837" t="s">
+        <v>380</v>
+      </c>
+      <c r="F837" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="1379" spans="5:5" ht="16" x14ac:dyDescent="0.2">
       <c r="E1379" s="13"/>
     </row>

--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAE14B2-3579-EC41-BC5E-49C6A3AFFC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3A227A-497D-8746-8340-C8309A8B40A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5711" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5760" uniqueCount="1141">
   <si>
     <t>Amplicon</t>
   </si>
@@ -7722,8 +7722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
   <dimension ref="A1:G1419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A771" workbookViewId="0">
-      <selection activeCell="K793" sqref="K793"/>
+    <sheetView tabSelected="1" topLeftCell="A799" workbookViewId="0">
+      <selection activeCell="G838" sqref="G838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23198,6 +23198,9 @@
       <c r="F789" t="s">
         <v>1111</v>
       </c>
+      <c r="G789" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
@@ -23218,6 +23221,9 @@
       <c r="F790" t="s">
         <v>1111</v>
       </c>
+      <c r="G790" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
@@ -23238,6 +23244,9 @@
       <c r="F791" t="s">
         <v>1111</v>
       </c>
+      <c r="G791" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
@@ -23258,6 +23267,9 @@
       <c r="F792" t="s">
         <v>1111</v>
       </c>
+      <c r="G792" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
@@ -23278,6 +23290,9 @@
       <c r="F793" t="s">
         <v>1111</v>
       </c>
+      <c r="G793" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
@@ -23298,6 +23313,9 @@
       <c r="F794" t="s">
         <v>1111</v>
       </c>
+      <c r="G794" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
@@ -23318,6 +23336,9 @@
       <c r="F795" t="s">
         <v>1111</v>
       </c>
+      <c r="G795" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
@@ -23338,6 +23359,9 @@
       <c r="F796" t="s">
         <v>1082</v>
       </c>
+      <c r="G796" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
@@ -23358,6 +23382,9 @@
       <c r="F797" t="s">
         <v>1082</v>
       </c>
+      <c r="G797" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
@@ -23378,6 +23405,9 @@
       <c r="F798" t="s">
         <v>1082</v>
       </c>
+      <c r="G798" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
@@ -23398,6 +23428,9 @@
       <c r="F799" t="s">
         <v>1082</v>
       </c>
+      <c r="G799" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
@@ -23418,8 +23451,11 @@
       <c r="F800" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G800" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>1123</v>
       </c>
@@ -23438,8 +23474,11 @@
       <c r="F801" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G801" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>1123</v>
       </c>
@@ -23458,8 +23497,11 @@
       <c r="F802" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G802" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>1123</v>
       </c>
@@ -23478,8 +23520,11 @@
       <c r="F803" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G803" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>1123</v>
       </c>
@@ -23498,8 +23543,11 @@
       <c r="F804" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G804" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>1123</v>
       </c>
@@ -23518,8 +23566,11 @@
       <c r="F805" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G805" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>1123</v>
       </c>
@@ -23538,8 +23589,11 @@
       <c r="F806" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G806" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>1123</v>
       </c>
@@ -23558,8 +23612,11 @@
       <c r="F807" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G807" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>1123</v>
       </c>
@@ -23578,8 +23635,11 @@
       <c r="F808" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G808" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>1123</v>
       </c>
@@ -23598,8 +23658,11 @@
       <c r="F809" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G809" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>1138</v>
       </c>
@@ -23618,8 +23681,11 @@
       <c r="F810" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G810" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>1138</v>
       </c>
@@ -23638,8 +23704,11 @@
       <c r="F811" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G811" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>1138</v>
       </c>
@@ -23658,8 +23727,11 @@
       <c r="F812" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G812" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>1138</v>
       </c>
@@ -23678,8 +23750,11 @@
       <c r="F813" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G813" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>1138</v>
       </c>
@@ -23698,8 +23773,11 @@
       <c r="F814" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G814" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>1138</v>
       </c>
@@ -23718,8 +23796,11 @@
       <c r="F815" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G815" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>1138</v>
       </c>
@@ -23738,8 +23819,11 @@
       <c r="F816" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G816" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>1138</v>
       </c>
@@ -23758,8 +23842,11 @@
       <c r="F817" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G817" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>1138</v>
       </c>
@@ -23778,8 +23865,11 @@
       <c r="F818" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G818" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>1138</v>
       </c>
@@ -23798,8 +23888,11 @@
       <c r="F819" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G819" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>1138</v>
       </c>
@@ -23818,8 +23911,11 @@
       <c r="F820" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G820" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>1138</v>
       </c>
@@ -23838,8 +23934,11 @@
       <c r="F821" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G821" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>1138</v>
       </c>
@@ -23858,8 +23957,11 @@
       <c r="F822" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G822" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>1138</v>
       </c>
@@ -23878,8 +23980,11 @@
       <c r="F823" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G823" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>1138</v>
       </c>
@@ -23898,8 +24003,11 @@
       <c r="F824" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G824" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>1138</v>
       </c>
@@ -23918,8 +24026,11 @@
       <c r="F825" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G825" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>1138</v>
       </c>
@@ -23938,8 +24049,11 @@
       <c r="F826" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G826" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>1138</v>
       </c>
@@ -23958,8 +24072,11 @@
       <c r="F827" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G827" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>1138</v>
       </c>
@@ -23978,8 +24095,11 @@
       <c r="F828" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G828" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>1138</v>
       </c>
@@ -23998,8 +24118,11 @@
       <c r="F829" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G829" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>1138</v>
       </c>
@@ -24018,8 +24141,11 @@
       <c r="F830" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G830" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>1138</v>
       </c>
@@ -24038,8 +24164,11 @@
       <c r="F831" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G831" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>1138</v>
       </c>
@@ -24058,8 +24187,11 @@
       <c r="F832" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G832" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>1138</v>
       </c>
@@ -24078,8 +24210,11 @@
       <c r="F833" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G833" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>1138</v>
       </c>
@@ -24098,8 +24233,11 @@
       <c r="F834" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G834" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>1138</v>
       </c>
@@ -24118,8 +24256,11 @@
       <c r="F835" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G835" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>1138</v>
       </c>
@@ -24138,8 +24279,11 @@
       <c r="F836" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G836" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>1138</v>
       </c>
@@ -24157,6 +24301,9 @@
       </c>
       <c r="F837" t="s">
         <v>52</v>
+      </c>
+      <c r="G837" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="1379" spans="5:5" ht="16" x14ac:dyDescent="0.2">

--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3A227A-497D-8746-8340-C8309A8B40A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967E481-B3FA-4645-A0D6-0D98E91031A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lung_panel_version_1.1" sheetId="1" r:id="rId1"/>
     <sheet name="CRC_panel_version_3.1" sheetId="2" r:id="rId2"/>
     <sheet name="CRC_panel_version_1.1" sheetId="3" r:id="rId3"/>
     <sheet name="CRC_panel_version_1.2" sheetId="4" r:id="rId4"/>
-    <sheet name="CRC_panel_version_2.1" sheetId="5" r:id="rId5"/>
-    <sheet name="Truong_amplicon_PBMC_v1.1" sheetId="7" r:id="rId6"/>
-    <sheet name="Runs_tracking" sheetId="6" r:id="rId7"/>
+    <sheet name="RASSF1" sheetId="8" r:id="rId5"/>
+    <sheet name="CRC_panel_version_2.1" sheetId="5" r:id="rId6"/>
+    <sheet name="Truong_amplicon_PBMC_v1.1" sheetId="7" r:id="rId7"/>
+    <sheet name="Runs_tracking" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5760" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7319" uniqueCount="1281">
   <si>
     <t>Amplicon</t>
   </si>
@@ -3497,6 +3498,426 @@
   </si>
   <si>
     <t>TML4S7</t>
+  </si>
+  <si>
+    <t>R7532</t>
+  </si>
+  <si>
+    <t>TML7S6</t>
+  </si>
+  <si>
+    <t>TML7S7</t>
+  </si>
+  <si>
+    <t>R7554</t>
+  </si>
+  <si>
+    <t>TML10S6</t>
+  </si>
+  <si>
+    <t>TML10S7</t>
+  </si>
+  <si>
+    <t>TML11S6</t>
+  </si>
+  <si>
+    <t>TML11S7</t>
+  </si>
+  <si>
+    <t>TML13S6</t>
+  </si>
+  <si>
+    <t>TML13S7</t>
+  </si>
+  <si>
+    <t>TML14S6</t>
+  </si>
+  <si>
+    <t>TML15S6</t>
+  </si>
+  <si>
+    <t>TML15S7</t>
+  </si>
+  <si>
+    <t>TML16S6</t>
+  </si>
+  <si>
+    <t>R7561</t>
+  </si>
+  <si>
+    <t>TMPC5S1I2</t>
+  </si>
+  <si>
+    <t>TMPC5S2I2</t>
+  </si>
+  <si>
+    <t>TMPC5S3I2</t>
+  </si>
+  <si>
+    <t>TMPC5S4I2</t>
+  </si>
+  <si>
+    <t>TMPC5S5I2</t>
+  </si>
+  <si>
+    <t>TMPC5S6I2</t>
+  </si>
+  <si>
+    <t>TMPC5S7I2</t>
+  </si>
+  <si>
+    <t>TMH3S1I2</t>
+  </si>
+  <si>
+    <t>TMH3S2I2</t>
+  </si>
+  <si>
+    <t>TMH3S3I2</t>
+  </si>
+  <si>
+    <t>TMH3S4I2</t>
+  </si>
+  <si>
+    <t>TMH3S5I2</t>
+  </si>
+  <si>
+    <t>TMH3S6I2</t>
+  </si>
+  <si>
+    <t>TMH3S7I2</t>
+  </si>
+  <si>
+    <t>R7568</t>
+  </si>
+  <si>
+    <t>TMPC6S1I2</t>
+  </si>
+  <si>
+    <t>TMPC6S2I2</t>
+  </si>
+  <si>
+    <t>TMPC6S3I2</t>
+  </si>
+  <si>
+    <t>TMPC6S4I2</t>
+  </si>
+  <si>
+    <t>TMPC6S5I2</t>
+  </si>
+  <si>
+    <t>TMPC6S6I2</t>
+  </si>
+  <si>
+    <t>TMPC6S7I2</t>
+  </si>
+  <si>
+    <t>TML1S1I2</t>
+  </si>
+  <si>
+    <t>TML1S2I2</t>
+  </si>
+  <si>
+    <t>TML1S3I2</t>
+  </si>
+  <si>
+    <t>TML1S4I2</t>
+  </si>
+  <si>
+    <t>TML1S5I2</t>
+  </si>
+  <si>
+    <t>TML1S6I2</t>
+  </si>
+  <si>
+    <t>TML1S7I2</t>
+  </si>
+  <si>
+    <t>TML2S1I2</t>
+  </si>
+  <si>
+    <t>TML2S2I2</t>
+  </si>
+  <si>
+    <t>TML2S3I2</t>
+  </si>
+  <si>
+    <t>TML2S4I2</t>
+  </si>
+  <si>
+    <t>TML2S5I2</t>
+  </si>
+  <si>
+    <t>TML2S6I2</t>
+  </si>
+  <si>
+    <t>TML2S7I2</t>
+  </si>
+  <si>
+    <t>R7575</t>
+  </si>
+  <si>
+    <t>TML17S7</t>
+  </si>
+  <si>
+    <t>TMC3S4</t>
+  </si>
+  <si>
+    <t>R7547</t>
+  </si>
+  <si>
+    <t>ST31_0</t>
+  </si>
+  <si>
+    <t>ST32_1</t>
+  </si>
+  <si>
+    <t>ST33_5</t>
+  </si>
+  <si>
+    <t>ST34_10</t>
+  </si>
+  <si>
+    <t>ST35_50</t>
+  </si>
+  <si>
+    <t>ST36_100</t>
+  </si>
+  <si>
+    <t>ST51_0</t>
+  </si>
+  <si>
+    <t>ST52_1</t>
+  </si>
+  <si>
+    <t>ST53_5</t>
+  </si>
+  <si>
+    <t>ST54_10</t>
+  </si>
+  <si>
+    <t>ST55_50</t>
+  </si>
+  <si>
+    <t>ST56_100</t>
+  </si>
+  <si>
+    <t>DMR41_0</t>
+  </si>
+  <si>
+    <t>DMR42_1</t>
+  </si>
+  <si>
+    <t>DMR43_5</t>
+  </si>
+  <si>
+    <t>DMR44_10</t>
+  </si>
+  <si>
+    <t>DMR45_50</t>
+  </si>
+  <si>
+    <t>DMR46_100</t>
+  </si>
+  <si>
+    <t>DMR71_0</t>
+  </si>
+  <si>
+    <t>DMR72_1</t>
+  </si>
+  <si>
+    <t>DMR73_5</t>
+  </si>
+  <si>
+    <t>DMR74_10</t>
+  </si>
+  <si>
+    <t>DMR75_50</t>
+  </si>
+  <si>
+    <t>DMR76_100</t>
+  </si>
+  <si>
+    <t>ST91_0</t>
+  </si>
+  <si>
+    <t>ST92_1</t>
+  </si>
+  <si>
+    <t>ST93_5</t>
+  </si>
+  <si>
+    <t>ST94_10</t>
+  </si>
+  <si>
+    <t>ST95_50</t>
+  </si>
+  <si>
+    <t>ST96_100</t>
+  </si>
+  <si>
+    <t>ST101_0</t>
+  </si>
+  <si>
+    <t>ST102_1</t>
+  </si>
+  <si>
+    <t>ST103_5</t>
+  </si>
+  <si>
+    <t>ST104_10</t>
+  </si>
+  <si>
+    <t>ST105_50</t>
+  </si>
+  <si>
+    <t>ST106_100</t>
+  </si>
+  <si>
+    <t>ST131_0</t>
+  </si>
+  <si>
+    <t>ST132_1</t>
+  </si>
+  <si>
+    <t>ST133_5</t>
+  </si>
+  <si>
+    <t>ST134_10</t>
+  </si>
+  <si>
+    <t>ST135_50</t>
+  </si>
+  <si>
+    <t>ST136_100</t>
+  </si>
+  <si>
+    <t>ST151_0</t>
+  </si>
+  <si>
+    <t>ST152_1</t>
+  </si>
+  <si>
+    <t>ST153_5</t>
+  </si>
+  <si>
+    <t>ST154_10</t>
+  </si>
+  <si>
+    <t>ST155_50</t>
+  </si>
+  <si>
+    <t>ST156_100</t>
+  </si>
+  <si>
+    <t>ST141_0</t>
+  </si>
+  <si>
+    <t>ST142_1</t>
+  </si>
+  <si>
+    <t>ST143_5</t>
+  </si>
+  <si>
+    <t>ST144_10</t>
+  </si>
+  <si>
+    <t>ST145_50</t>
+  </si>
+  <si>
+    <t>ST146_100</t>
+  </si>
+  <si>
+    <t>R7590</t>
+  </si>
+  <si>
+    <t>TML3S1I2</t>
+  </si>
+  <si>
+    <t>TML3S2I2</t>
+  </si>
+  <si>
+    <t>TML3S3I2</t>
+  </si>
+  <si>
+    <t>TML3S4I2</t>
+  </si>
+  <si>
+    <t>TML3S5I2</t>
+  </si>
+  <si>
+    <t>TML3S6I2</t>
+  </si>
+  <si>
+    <t>TML3S7I2</t>
+  </si>
+  <si>
+    <t>TML4S1I2</t>
+  </si>
+  <si>
+    <t>TML4S2I2</t>
+  </si>
+  <si>
+    <t>TML4S3I2</t>
+  </si>
+  <si>
+    <t>TML4S4I2</t>
+  </si>
+  <si>
+    <t>TML4S5I2</t>
+  </si>
+  <si>
+    <t>TML4S6I2</t>
+  </si>
+  <si>
+    <t>TML4S7I2</t>
+  </si>
+  <si>
+    <t>R7611</t>
+  </si>
+  <si>
+    <t>TMSTS1P</t>
+  </si>
+  <si>
+    <t>RASSF1</t>
+  </si>
+  <si>
+    <t>TMSTS4P</t>
+  </si>
+  <si>
+    <t>TMSTS1V</t>
+  </si>
+  <si>
+    <t>TMSTS2V</t>
+  </si>
+  <si>
+    <t>TMSTS3V</t>
+  </si>
+  <si>
+    <t>TMSTS4V</t>
+  </si>
+  <si>
+    <t>TMSTS5V</t>
+  </si>
+  <si>
+    <t>TMSTS6V</t>
+  </si>
+  <si>
+    <t>TMSTS7V</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>chr3:50340649-50340975</t>
+  </si>
+  <si>
+    <t>chr3:50303218-50303544</t>
+  </si>
+  <si>
+    <t>GGTGGTTAYGGTTAGGGATTAGTTGT</t>
+  </si>
+  <si>
+    <t>AACCCCACAATCCCTACACCCAAATTTCCATTA</t>
   </si>
 </sst>
 </file>
@@ -3616,7 +4037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3641,6 +4062,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6685,6 +7107,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7C59D0-E04F-5948-82D4-A056CB223EFE}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -7034,7 +7505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB87DAB-575F-4D14-809B-7B1AFA103D8C}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -7718,12 +8189,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
   <dimension ref="A1:G1419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A799" workbookViewId="0">
-      <selection activeCell="G838" sqref="G838"/>
+    <sheetView tabSelected="1" topLeftCell="A1034" workbookViewId="0">
+      <selection activeCell="O1060" sqref="O1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24306,6 +24777,5111 @@
         <v>955</v>
       </c>
     </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B838" t="s">
+        <v>780</v>
+      </c>
+      <c r="C838" t="s">
+        <v>378</v>
+      </c>
+      <c r="D838" t="s">
+        <v>765</v>
+      </c>
+      <c r="E838" t="s">
+        <v>380</v>
+      </c>
+      <c r="F838" t="s">
+        <v>58</v>
+      </c>
+      <c r="G838" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B839" t="s">
+        <v>781</v>
+      </c>
+      <c r="C839" t="s">
+        <v>378</v>
+      </c>
+      <c r="D839" t="s">
+        <v>765</v>
+      </c>
+      <c r="E839" t="s">
+        <v>380</v>
+      </c>
+      <c r="F839" t="s">
+        <v>58</v>
+      </c>
+      <c r="G839" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B840" t="s">
+        <v>782</v>
+      </c>
+      <c r="C840" t="s">
+        <v>378</v>
+      </c>
+      <c r="D840" t="s">
+        <v>765</v>
+      </c>
+      <c r="E840" t="s">
+        <v>380</v>
+      </c>
+      <c r="F840" t="s">
+        <v>58</v>
+      </c>
+      <c r="G840" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B841" t="s">
+        <v>783</v>
+      </c>
+      <c r="C841" t="s">
+        <v>378</v>
+      </c>
+      <c r="D841" t="s">
+        <v>765</v>
+      </c>
+      <c r="E841" t="s">
+        <v>380</v>
+      </c>
+      <c r="F841" t="s">
+        <v>58</v>
+      </c>
+      <c r="G841" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B842" t="s">
+        <v>924</v>
+      </c>
+      <c r="C842" t="s">
+        <v>378</v>
+      </c>
+      <c r="D842" t="s">
+        <v>765</v>
+      </c>
+      <c r="E842" t="s">
+        <v>380</v>
+      </c>
+      <c r="F842" t="s">
+        <v>58</v>
+      </c>
+      <c r="G842" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B843" t="s">
+        <v>933</v>
+      </c>
+      <c r="C843" t="s">
+        <v>378</v>
+      </c>
+      <c r="D843" t="s">
+        <v>765</v>
+      </c>
+      <c r="E843" t="s">
+        <v>380</v>
+      </c>
+      <c r="F843" t="s">
+        <v>58</v>
+      </c>
+      <c r="G843" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B844" t="s">
+        <v>831</v>
+      </c>
+      <c r="C844" t="s">
+        <v>378</v>
+      </c>
+      <c r="D844" t="s">
+        <v>765</v>
+      </c>
+      <c r="E844" t="s">
+        <v>380</v>
+      </c>
+      <c r="F844" t="s">
+        <v>65</v>
+      </c>
+      <c r="G844" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B845" t="s">
+        <v>832</v>
+      </c>
+      <c r="C845" t="s">
+        <v>378</v>
+      </c>
+      <c r="D845" t="s">
+        <v>765</v>
+      </c>
+      <c r="E845" t="s">
+        <v>380</v>
+      </c>
+      <c r="F845" t="s">
+        <v>65</v>
+      </c>
+      <c r="G845" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B846" t="s">
+        <v>833</v>
+      </c>
+      <c r="C846" t="s">
+        <v>378</v>
+      </c>
+      <c r="D846" t="s">
+        <v>765</v>
+      </c>
+      <c r="E846" t="s">
+        <v>380</v>
+      </c>
+      <c r="F846" t="s">
+        <v>65</v>
+      </c>
+      <c r="G846" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B847" t="s">
+        <v>816</v>
+      </c>
+      <c r="C847" t="s">
+        <v>378</v>
+      </c>
+      <c r="D847" t="s">
+        <v>765</v>
+      </c>
+      <c r="E847" t="s">
+        <v>380</v>
+      </c>
+      <c r="F847" t="s">
+        <v>71</v>
+      </c>
+      <c r="G847" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B848" t="s">
+        <v>817</v>
+      </c>
+      <c r="C848" t="s">
+        <v>378</v>
+      </c>
+      <c r="D848" t="s">
+        <v>765</v>
+      </c>
+      <c r="E848" t="s">
+        <v>380</v>
+      </c>
+      <c r="F848" t="s">
+        <v>71</v>
+      </c>
+      <c r="G848" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B849" t="s">
+        <v>818</v>
+      </c>
+      <c r="C849" t="s">
+        <v>378</v>
+      </c>
+      <c r="D849" t="s">
+        <v>765</v>
+      </c>
+      <c r="E849" t="s">
+        <v>380</v>
+      </c>
+      <c r="F849" t="s">
+        <v>71</v>
+      </c>
+      <c r="G849" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B850" t="s">
+        <v>819</v>
+      </c>
+      <c r="C850" t="s">
+        <v>378</v>
+      </c>
+      <c r="D850" t="s">
+        <v>765</v>
+      </c>
+      <c r="E850" t="s">
+        <v>380</v>
+      </c>
+      <c r="F850" t="s">
+        <v>71</v>
+      </c>
+      <c r="G850" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B851" t="s">
+        <v>820</v>
+      </c>
+      <c r="C851" t="s">
+        <v>378</v>
+      </c>
+      <c r="D851" t="s">
+        <v>765</v>
+      </c>
+      <c r="E851" t="s">
+        <v>380</v>
+      </c>
+      <c r="F851" t="s">
+        <v>71</v>
+      </c>
+      <c r="G851" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C852" t="s">
+        <v>378</v>
+      </c>
+      <c r="D852" t="s">
+        <v>765</v>
+      </c>
+      <c r="E852" t="s">
+        <v>380</v>
+      </c>
+      <c r="F852" t="s">
+        <v>71</v>
+      </c>
+      <c r="G852" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C853" t="s">
+        <v>378</v>
+      </c>
+      <c r="D853" t="s">
+        <v>765</v>
+      </c>
+      <c r="E853" t="s">
+        <v>380</v>
+      </c>
+      <c r="F853" t="s">
+        <v>71</v>
+      </c>
+      <c r="G853" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B854" t="s">
+        <v>785</v>
+      </c>
+      <c r="C854" t="s">
+        <v>378</v>
+      </c>
+      <c r="D854" t="s">
+        <v>765</v>
+      </c>
+      <c r="E854" t="s">
+        <v>380</v>
+      </c>
+      <c r="F854" t="s">
+        <v>79</v>
+      </c>
+      <c r="G854" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B855" t="s">
+        <v>786</v>
+      </c>
+      <c r="C855" t="s">
+        <v>378</v>
+      </c>
+      <c r="D855" t="s">
+        <v>765</v>
+      </c>
+      <c r="E855" t="s">
+        <v>380</v>
+      </c>
+      <c r="F855" t="s">
+        <v>79</v>
+      </c>
+      <c r="G855" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B856" t="s">
+        <v>787</v>
+      </c>
+      <c r="C856" t="s">
+        <v>378</v>
+      </c>
+      <c r="D856" t="s">
+        <v>765</v>
+      </c>
+      <c r="E856" t="s">
+        <v>380</v>
+      </c>
+      <c r="F856" t="s">
+        <v>79</v>
+      </c>
+      <c r="G856" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B857" t="s">
+        <v>788</v>
+      </c>
+      <c r="C857" t="s">
+        <v>378</v>
+      </c>
+      <c r="D857" t="s">
+        <v>765</v>
+      </c>
+      <c r="E857" t="s">
+        <v>380</v>
+      </c>
+      <c r="F857" t="s">
+        <v>79</v>
+      </c>
+      <c r="G857" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B858" t="s">
+        <v>789</v>
+      </c>
+      <c r="C858" t="s">
+        <v>378</v>
+      </c>
+      <c r="D858" t="s">
+        <v>765</v>
+      </c>
+      <c r="E858" t="s">
+        <v>380</v>
+      </c>
+      <c r="F858" t="s">
+        <v>79</v>
+      </c>
+      <c r="G858" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B859" t="s">
+        <v>926</v>
+      </c>
+      <c r="C859" t="s">
+        <v>378</v>
+      </c>
+      <c r="D859" t="s">
+        <v>765</v>
+      </c>
+      <c r="E859" t="s">
+        <v>380</v>
+      </c>
+      <c r="F859" t="s">
+        <v>79</v>
+      </c>
+      <c r="G859" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B860" t="s">
+        <v>935</v>
+      </c>
+      <c r="C860" t="s">
+        <v>378</v>
+      </c>
+      <c r="D860" t="s">
+        <v>765</v>
+      </c>
+      <c r="E860" t="s">
+        <v>380</v>
+      </c>
+      <c r="F860" t="s">
+        <v>79</v>
+      </c>
+      <c r="G860" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B861" t="s">
+        <v>790</v>
+      </c>
+      <c r="C861" t="s">
+        <v>378</v>
+      </c>
+      <c r="D861" t="s">
+        <v>765</v>
+      </c>
+      <c r="E861" t="s">
+        <v>380</v>
+      </c>
+      <c r="F861" t="s">
+        <v>85</v>
+      </c>
+      <c r="G861" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B862" t="s">
+        <v>791</v>
+      </c>
+      <c r="C862" t="s">
+        <v>378</v>
+      </c>
+      <c r="D862" t="s">
+        <v>765</v>
+      </c>
+      <c r="E862" t="s">
+        <v>380</v>
+      </c>
+      <c r="F862" t="s">
+        <v>85</v>
+      </c>
+      <c r="G862" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B863" t="s">
+        <v>792</v>
+      </c>
+      <c r="C863" t="s">
+        <v>378</v>
+      </c>
+      <c r="D863" t="s">
+        <v>765</v>
+      </c>
+      <c r="E863" t="s">
+        <v>380</v>
+      </c>
+      <c r="F863" t="s">
+        <v>85</v>
+      </c>
+      <c r="G863" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B864" t="s">
+        <v>793</v>
+      </c>
+      <c r="C864" t="s">
+        <v>378</v>
+      </c>
+      <c r="D864" t="s">
+        <v>765</v>
+      </c>
+      <c r="E864" t="s">
+        <v>380</v>
+      </c>
+      <c r="F864" t="s">
+        <v>85</v>
+      </c>
+      <c r="G864" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B865" t="s">
+        <v>794</v>
+      </c>
+      <c r="C865" t="s">
+        <v>378</v>
+      </c>
+      <c r="D865" t="s">
+        <v>765</v>
+      </c>
+      <c r="E865" t="s">
+        <v>380</v>
+      </c>
+      <c r="F865" t="s">
+        <v>85</v>
+      </c>
+      <c r="G865" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B866" t="s">
+        <v>927</v>
+      </c>
+      <c r="C866" t="s">
+        <v>378</v>
+      </c>
+      <c r="D866" t="s">
+        <v>765</v>
+      </c>
+      <c r="E866" t="s">
+        <v>380</v>
+      </c>
+      <c r="F866" t="s">
+        <v>85</v>
+      </c>
+      <c r="G866" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B867" t="s">
+        <v>936</v>
+      </c>
+      <c r="C867" t="s">
+        <v>378</v>
+      </c>
+      <c r="D867" t="s">
+        <v>765</v>
+      </c>
+      <c r="E867" t="s">
+        <v>380</v>
+      </c>
+      <c r="F867" t="s">
+        <v>85</v>
+      </c>
+      <c r="G867" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B868" t="s">
+        <v>795</v>
+      </c>
+      <c r="C868" t="s">
+        <v>378</v>
+      </c>
+      <c r="D868" t="s">
+        <v>765</v>
+      </c>
+      <c r="E868" t="s">
+        <v>380</v>
+      </c>
+      <c r="F868" t="s">
+        <v>91</v>
+      </c>
+      <c r="G868" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B869" t="s">
+        <v>796</v>
+      </c>
+      <c r="C869" t="s">
+        <v>378</v>
+      </c>
+      <c r="D869" t="s">
+        <v>765</v>
+      </c>
+      <c r="E869" t="s">
+        <v>380</v>
+      </c>
+      <c r="F869" t="s">
+        <v>91</v>
+      </c>
+      <c r="G869" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B870" t="s">
+        <v>797</v>
+      </c>
+      <c r="C870" t="s">
+        <v>378</v>
+      </c>
+      <c r="D870" t="s">
+        <v>765</v>
+      </c>
+      <c r="E870" t="s">
+        <v>380</v>
+      </c>
+      <c r="F870" t="s">
+        <v>91</v>
+      </c>
+      <c r="G870" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B871" t="s">
+        <v>798</v>
+      </c>
+      <c r="C871" t="s">
+        <v>378</v>
+      </c>
+      <c r="D871" t="s">
+        <v>765</v>
+      </c>
+      <c r="E871" t="s">
+        <v>380</v>
+      </c>
+      <c r="F871" t="s">
+        <v>91</v>
+      </c>
+      <c r="G871" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B872" t="s">
+        <v>799</v>
+      </c>
+      <c r="C872" t="s">
+        <v>378</v>
+      </c>
+      <c r="D872" t="s">
+        <v>765</v>
+      </c>
+      <c r="E872" t="s">
+        <v>380</v>
+      </c>
+      <c r="F872" t="s">
+        <v>91</v>
+      </c>
+      <c r="G872" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C873" t="s">
+        <v>378</v>
+      </c>
+      <c r="D873" t="s">
+        <v>765</v>
+      </c>
+      <c r="E873" t="s">
+        <v>380</v>
+      </c>
+      <c r="F873" t="s">
+        <v>91</v>
+      </c>
+      <c r="G873" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C874" t="s">
+        <v>378</v>
+      </c>
+      <c r="D874" t="s">
+        <v>765</v>
+      </c>
+      <c r="E874" t="s">
+        <v>380</v>
+      </c>
+      <c r="F874" t="s">
+        <v>91</v>
+      </c>
+      <c r="G874" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B875" t="s">
+        <v>800</v>
+      </c>
+      <c r="C875" t="s">
+        <v>378</v>
+      </c>
+      <c r="D875" t="s">
+        <v>765</v>
+      </c>
+      <c r="E875" t="s">
+        <v>380</v>
+      </c>
+      <c r="F875" t="s">
+        <v>98</v>
+      </c>
+      <c r="G875" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B876" t="s">
+        <v>801</v>
+      </c>
+      <c r="C876" t="s">
+        <v>378</v>
+      </c>
+      <c r="D876" t="s">
+        <v>765</v>
+      </c>
+      <c r="E876" t="s">
+        <v>380</v>
+      </c>
+      <c r="F876" t="s">
+        <v>98</v>
+      </c>
+      <c r="G876" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B877" t="s">
+        <v>802</v>
+      </c>
+      <c r="C877" t="s">
+        <v>378</v>
+      </c>
+      <c r="D877" t="s">
+        <v>765</v>
+      </c>
+      <c r="E877" t="s">
+        <v>380</v>
+      </c>
+      <c r="F877" t="s">
+        <v>98</v>
+      </c>
+      <c r="G877" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B878" t="s">
+        <v>803</v>
+      </c>
+      <c r="C878" t="s">
+        <v>378</v>
+      </c>
+      <c r="D878" t="s">
+        <v>765</v>
+      </c>
+      <c r="E878" t="s">
+        <v>380</v>
+      </c>
+      <c r="F878" t="s">
+        <v>98</v>
+      </c>
+      <c r="G878" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B879" t="s">
+        <v>804</v>
+      </c>
+      <c r="C879" t="s">
+        <v>378</v>
+      </c>
+      <c r="D879" t="s">
+        <v>765</v>
+      </c>
+      <c r="E879" t="s">
+        <v>380</v>
+      </c>
+      <c r="F879" t="s">
+        <v>98</v>
+      </c>
+      <c r="G879" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C880" t="s">
+        <v>378</v>
+      </c>
+      <c r="D880" t="s">
+        <v>765</v>
+      </c>
+      <c r="E880" t="s">
+        <v>380</v>
+      </c>
+      <c r="F880" t="s">
+        <v>98</v>
+      </c>
+      <c r="G880" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C881" t="s">
+        <v>378</v>
+      </c>
+      <c r="D881" t="s">
+        <v>765</v>
+      </c>
+      <c r="E881" t="s">
+        <v>380</v>
+      </c>
+      <c r="F881" t="s">
+        <v>98</v>
+      </c>
+      <c r="G881" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B882" t="s">
+        <v>821</v>
+      </c>
+      <c r="C882" t="s">
+        <v>378</v>
+      </c>
+      <c r="D882" t="s">
+        <v>765</v>
+      </c>
+      <c r="E882" t="s">
+        <v>380</v>
+      </c>
+      <c r="F882" t="s">
+        <v>104</v>
+      </c>
+      <c r="G882" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B883" t="s">
+        <v>822</v>
+      </c>
+      <c r="C883" t="s">
+        <v>378</v>
+      </c>
+      <c r="D883" t="s">
+        <v>765</v>
+      </c>
+      <c r="E883" t="s">
+        <v>380</v>
+      </c>
+      <c r="F883" t="s">
+        <v>104</v>
+      </c>
+      <c r="G883" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B884" t="s">
+        <v>823</v>
+      </c>
+      <c r="C884" t="s">
+        <v>378</v>
+      </c>
+      <c r="D884" t="s">
+        <v>765</v>
+      </c>
+      <c r="E884" t="s">
+        <v>380</v>
+      </c>
+      <c r="F884" t="s">
+        <v>104</v>
+      </c>
+      <c r="G884" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B885" t="s">
+        <v>824</v>
+      </c>
+      <c r="C885" t="s">
+        <v>378</v>
+      </c>
+      <c r="D885" t="s">
+        <v>765</v>
+      </c>
+      <c r="E885" t="s">
+        <v>380</v>
+      </c>
+      <c r="F885" t="s">
+        <v>104</v>
+      </c>
+      <c r="G885" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B886" t="s">
+        <v>825</v>
+      </c>
+      <c r="C886" t="s">
+        <v>378</v>
+      </c>
+      <c r="D886" t="s">
+        <v>765</v>
+      </c>
+      <c r="E886" t="s">
+        <v>380</v>
+      </c>
+      <c r="F886" t="s">
+        <v>104</v>
+      </c>
+      <c r="G886" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B887" t="s">
+        <v>928</v>
+      </c>
+      <c r="C887" t="s">
+        <v>378</v>
+      </c>
+      <c r="D887" t="s">
+        <v>765</v>
+      </c>
+      <c r="E887" t="s">
+        <v>380</v>
+      </c>
+      <c r="F887" t="s">
+        <v>104</v>
+      </c>
+      <c r="G887" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B888" t="s">
+        <v>937</v>
+      </c>
+      <c r="C888" t="s">
+        <v>378</v>
+      </c>
+      <c r="D888" t="s">
+        <v>765</v>
+      </c>
+      <c r="E888" t="s">
+        <v>380</v>
+      </c>
+      <c r="F888" t="s">
+        <v>104</v>
+      </c>
+      <c r="G888" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B889" t="s">
+        <v>826</v>
+      </c>
+      <c r="C889" t="s">
+        <v>378</v>
+      </c>
+      <c r="D889" t="s">
+        <v>765</v>
+      </c>
+      <c r="E889" t="s">
+        <v>380</v>
+      </c>
+      <c r="F889" t="s">
+        <v>110</v>
+      </c>
+      <c r="G889" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B890" t="s">
+        <v>827</v>
+      </c>
+      <c r="C890" t="s">
+        <v>378</v>
+      </c>
+      <c r="D890" t="s">
+        <v>765</v>
+      </c>
+      <c r="E890" t="s">
+        <v>380</v>
+      </c>
+      <c r="F890" t="s">
+        <v>110</v>
+      </c>
+      <c r="G890" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B891" t="s">
+        <v>828</v>
+      </c>
+      <c r="C891" t="s">
+        <v>378</v>
+      </c>
+      <c r="D891" t="s">
+        <v>765</v>
+      </c>
+      <c r="E891" t="s">
+        <v>380</v>
+      </c>
+      <c r="F891" t="s">
+        <v>110</v>
+      </c>
+      <c r="G891" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B892" t="s">
+        <v>829</v>
+      </c>
+      <c r="C892" t="s">
+        <v>378</v>
+      </c>
+      <c r="D892" t="s">
+        <v>765</v>
+      </c>
+      <c r="E892" t="s">
+        <v>380</v>
+      </c>
+      <c r="F892" t="s">
+        <v>110</v>
+      </c>
+      <c r="G892" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B893" t="s">
+        <v>830</v>
+      </c>
+      <c r="C893" t="s">
+        <v>378</v>
+      </c>
+      <c r="D893" t="s">
+        <v>765</v>
+      </c>
+      <c r="E893" t="s">
+        <v>380</v>
+      </c>
+      <c r="F893" t="s">
+        <v>110</v>
+      </c>
+      <c r="G893" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C894" t="s">
+        <v>378</v>
+      </c>
+      <c r="D894" t="s">
+        <v>765</v>
+      </c>
+      <c r="E894" t="s">
+        <v>380</v>
+      </c>
+      <c r="F894" t="s">
+        <v>110</v>
+      </c>
+      <c r="G894" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C895" t="s">
+        <v>378</v>
+      </c>
+      <c r="D895" t="s">
+        <v>765</v>
+      </c>
+      <c r="E895" t="s">
+        <v>380</v>
+      </c>
+      <c r="F895" t="s">
+        <v>110</v>
+      </c>
+      <c r="G895" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B896" t="s">
+        <v>836</v>
+      </c>
+      <c r="C896" t="s">
+        <v>378</v>
+      </c>
+      <c r="D896" t="s">
+        <v>765</v>
+      </c>
+      <c r="E896" t="s">
+        <v>380</v>
+      </c>
+      <c r="F896" t="s">
+        <v>116</v>
+      </c>
+      <c r="G896" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B897" t="s">
+        <v>837</v>
+      </c>
+      <c r="C897" t="s">
+        <v>378</v>
+      </c>
+      <c r="D897" t="s">
+        <v>765</v>
+      </c>
+      <c r="E897" t="s">
+        <v>380</v>
+      </c>
+      <c r="F897" t="s">
+        <v>116</v>
+      </c>
+      <c r="G897" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B898" t="s">
+        <v>838</v>
+      </c>
+      <c r="C898" t="s">
+        <v>378</v>
+      </c>
+      <c r="D898" t="s">
+        <v>765</v>
+      </c>
+      <c r="E898" t="s">
+        <v>380</v>
+      </c>
+      <c r="F898" t="s">
+        <v>116</v>
+      </c>
+      <c r="G898" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B899" t="s">
+        <v>839</v>
+      </c>
+      <c r="C899" t="s">
+        <v>378</v>
+      </c>
+      <c r="D899" t="s">
+        <v>765</v>
+      </c>
+      <c r="E899" t="s">
+        <v>380</v>
+      </c>
+      <c r="F899" t="s">
+        <v>116</v>
+      </c>
+      <c r="G899" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B900" t="s">
+        <v>840</v>
+      </c>
+      <c r="C900" t="s">
+        <v>378</v>
+      </c>
+      <c r="D900" t="s">
+        <v>765</v>
+      </c>
+      <c r="E900" t="s">
+        <v>380</v>
+      </c>
+      <c r="F900" t="s">
+        <v>116</v>
+      </c>
+      <c r="G900" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C901" t="s">
+        <v>378</v>
+      </c>
+      <c r="D901" t="s">
+        <v>765</v>
+      </c>
+      <c r="E901" t="s">
+        <v>380</v>
+      </c>
+      <c r="F901" t="s">
+        <v>116</v>
+      </c>
+      <c r="G901" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B902" t="s">
+        <v>842</v>
+      </c>
+      <c r="C902" t="s">
+        <v>378</v>
+      </c>
+      <c r="D902" t="s">
+        <v>765</v>
+      </c>
+      <c r="E902" t="s">
+        <v>380</v>
+      </c>
+      <c r="F902" t="s">
+        <v>123</v>
+      </c>
+      <c r="G902" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B903" t="s">
+        <v>843</v>
+      </c>
+      <c r="C903" t="s">
+        <v>378</v>
+      </c>
+      <c r="D903" t="s">
+        <v>765</v>
+      </c>
+      <c r="E903" t="s">
+        <v>380</v>
+      </c>
+      <c r="F903" t="s">
+        <v>123</v>
+      </c>
+      <c r="G903" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B904" t="s">
+        <v>844</v>
+      </c>
+      <c r="C904" t="s">
+        <v>378</v>
+      </c>
+      <c r="D904" t="s">
+        <v>765</v>
+      </c>
+      <c r="E904" t="s">
+        <v>380</v>
+      </c>
+      <c r="F904" t="s">
+        <v>123</v>
+      </c>
+      <c r="G904" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B905" t="s">
+        <v>845</v>
+      </c>
+      <c r="C905" t="s">
+        <v>378</v>
+      </c>
+      <c r="D905" t="s">
+        <v>765</v>
+      </c>
+      <c r="E905" t="s">
+        <v>380</v>
+      </c>
+      <c r="F905" t="s">
+        <v>123</v>
+      </c>
+      <c r="G905" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C906" t="s">
+        <v>378</v>
+      </c>
+      <c r="D906" t="s">
+        <v>765</v>
+      </c>
+      <c r="E906" t="s">
+        <v>380</v>
+      </c>
+      <c r="F906" t="s">
+        <v>123</v>
+      </c>
+      <c r="G906" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C907" t="s">
+        <v>378</v>
+      </c>
+      <c r="D907" t="s">
+        <v>765</v>
+      </c>
+      <c r="E907" t="s">
+        <v>380</v>
+      </c>
+      <c r="F907" t="s">
+        <v>123</v>
+      </c>
+      <c r="G907" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B908" t="s">
+        <v>846</v>
+      </c>
+      <c r="C908" t="s">
+        <v>378</v>
+      </c>
+      <c r="D908" t="s">
+        <v>765</v>
+      </c>
+      <c r="E908" t="s">
+        <v>380</v>
+      </c>
+      <c r="F908" t="s">
+        <v>130</v>
+      </c>
+      <c r="G908" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B909" t="s">
+        <v>847</v>
+      </c>
+      <c r="C909" t="s">
+        <v>378</v>
+      </c>
+      <c r="D909" t="s">
+        <v>765</v>
+      </c>
+      <c r="E909" t="s">
+        <v>380</v>
+      </c>
+      <c r="F909" t="s">
+        <v>130</v>
+      </c>
+      <c r="G909" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B910" t="s">
+        <v>848</v>
+      </c>
+      <c r="C910" t="s">
+        <v>378</v>
+      </c>
+      <c r="D910" t="s">
+        <v>765</v>
+      </c>
+      <c r="E910" t="s">
+        <v>380</v>
+      </c>
+      <c r="F910" t="s">
+        <v>130</v>
+      </c>
+      <c r="G910" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B911" t="s">
+        <v>849</v>
+      </c>
+      <c r="C911" t="s">
+        <v>378</v>
+      </c>
+      <c r="D911" t="s">
+        <v>765</v>
+      </c>
+      <c r="E911" t="s">
+        <v>380</v>
+      </c>
+      <c r="F911" t="s">
+        <v>130</v>
+      </c>
+      <c r="G911" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B912" t="s">
+        <v>850</v>
+      </c>
+      <c r="C912" t="s">
+        <v>378</v>
+      </c>
+      <c r="D912" t="s">
+        <v>765</v>
+      </c>
+      <c r="E912" t="s">
+        <v>380</v>
+      </c>
+      <c r="F912" t="s">
+        <v>130</v>
+      </c>
+      <c r="G912" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C913" t="s">
+        <v>378</v>
+      </c>
+      <c r="D913" t="s">
+        <v>765</v>
+      </c>
+      <c r="E913" t="s">
+        <v>380</v>
+      </c>
+      <c r="F913" t="s">
+        <v>130</v>
+      </c>
+      <c r="G913" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C914" t="s">
+        <v>378</v>
+      </c>
+      <c r="D914" t="s">
+        <v>379</v>
+      </c>
+      <c r="E914" t="s">
+        <v>380</v>
+      </c>
+      <c r="F914" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G914" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C915" t="s">
+        <v>378</v>
+      </c>
+      <c r="D915" t="s">
+        <v>379</v>
+      </c>
+      <c r="E915" t="s">
+        <v>380</v>
+      </c>
+      <c r="F915" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G915" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C916" t="s">
+        <v>378</v>
+      </c>
+      <c r="D916" t="s">
+        <v>379</v>
+      </c>
+      <c r="E916" t="s">
+        <v>380</v>
+      </c>
+      <c r="F916" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G916" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C917" t="s">
+        <v>378</v>
+      </c>
+      <c r="D917" t="s">
+        <v>379</v>
+      </c>
+      <c r="E917" t="s">
+        <v>380</v>
+      </c>
+      <c r="F917" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G917" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C918" t="s">
+        <v>378</v>
+      </c>
+      <c r="D918" t="s">
+        <v>379</v>
+      </c>
+      <c r="E918" t="s">
+        <v>380</v>
+      </c>
+      <c r="F918" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G918" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C919" t="s">
+        <v>378</v>
+      </c>
+      <c r="D919" t="s">
+        <v>379</v>
+      </c>
+      <c r="E919" t="s">
+        <v>380</v>
+      </c>
+      <c r="F919" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G919" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C920" t="s">
+        <v>378</v>
+      </c>
+      <c r="D920" t="s">
+        <v>379</v>
+      </c>
+      <c r="E920" t="s">
+        <v>380</v>
+      </c>
+      <c r="F920" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G920" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C921" t="s">
+        <v>378</v>
+      </c>
+      <c r="D921" t="s">
+        <v>379</v>
+      </c>
+      <c r="E921" t="s">
+        <v>380</v>
+      </c>
+      <c r="F921" t="s">
+        <v>205</v>
+      </c>
+      <c r="G921" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C922" t="s">
+        <v>378</v>
+      </c>
+      <c r="D922" t="s">
+        <v>379</v>
+      </c>
+      <c r="E922" t="s">
+        <v>380</v>
+      </c>
+      <c r="F922" t="s">
+        <v>205</v>
+      </c>
+      <c r="G922" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C923" t="s">
+        <v>378</v>
+      </c>
+      <c r="D923" t="s">
+        <v>379</v>
+      </c>
+      <c r="E923" t="s">
+        <v>380</v>
+      </c>
+      <c r="F923" t="s">
+        <v>205</v>
+      </c>
+      <c r="G923" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C924" t="s">
+        <v>378</v>
+      </c>
+      <c r="D924" t="s">
+        <v>379</v>
+      </c>
+      <c r="E924" t="s">
+        <v>380</v>
+      </c>
+      <c r="F924" t="s">
+        <v>205</v>
+      </c>
+      <c r="G924" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C925" t="s">
+        <v>378</v>
+      </c>
+      <c r="D925" t="s">
+        <v>379</v>
+      </c>
+      <c r="E925" t="s">
+        <v>380</v>
+      </c>
+      <c r="F925" t="s">
+        <v>205</v>
+      </c>
+      <c r="G925" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C926" t="s">
+        <v>378</v>
+      </c>
+      <c r="D926" t="s">
+        <v>379</v>
+      </c>
+      <c r="E926" t="s">
+        <v>380</v>
+      </c>
+      <c r="F926" t="s">
+        <v>205</v>
+      </c>
+      <c r="G926" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C927" t="s">
+        <v>378</v>
+      </c>
+      <c r="D927" t="s">
+        <v>379</v>
+      </c>
+      <c r="E927" t="s">
+        <v>380</v>
+      </c>
+      <c r="F927" t="s">
+        <v>205</v>
+      </c>
+      <c r="G927" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C928" t="s">
+        <v>378</v>
+      </c>
+      <c r="D928" t="s">
+        <v>379</v>
+      </c>
+      <c r="E928" t="s">
+        <v>380</v>
+      </c>
+      <c r="F928" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G928" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C929" t="s">
+        <v>378</v>
+      </c>
+      <c r="D929" t="s">
+        <v>379</v>
+      </c>
+      <c r="E929" t="s">
+        <v>380</v>
+      </c>
+      <c r="F929" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G929" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C930" t="s">
+        <v>378</v>
+      </c>
+      <c r="D930" t="s">
+        <v>379</v>
+      </c>
+      <c r="E930" t="s">
+        <v>380</v>
+      </c>
+      <c r="F930" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G930" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C931" t="s">
+        <v>378</v>
+      </c>
+      <c r="D931" t="s">
+        <v>379</v>
+      </c>
+      <c r="E931" t="s">
+        <v>380</v>
+      </c>
+      <c r="F931" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G931" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C932" t="s">
+        <v>378</v>
+      </c>
+      <c r="D932" t="s">
+        <v>379</v>
+      </c>
+      <c r="E932" t="s">
+        <v>380</v>
+      </c>
+      <c r="F932" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G932" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C933" t="s">
+        <v>378</v>
+      </c>
+      <c r="D933" t="s">
+        <v>379</v>
+      </c>
+      <c r="E933" t="s">
+        <v>380</v>
+      </c>
+      <c r="F933" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G933" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C934" t="s">
+        <v>378</v>
+      </c>
+      <c r="D934" t="s">
+        <v>379</v>
+      </c>
+      <c r="E934" t="s">
+        <v>380</v>
+      </c>
+      <c r="F934" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G934" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C935" t="s">
+        <v>378</v>
+      </c>
+      <c r="D935" t="s">
+        <v>765</v>
+      </c>
+      <c r="E935" t="s">
+        <v>380</v>
+      </c>
+      <c r="F935" t="s">
+        <v>24</v>
+      </c>
+      <c r="G935" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C936" t="s">
+        <v>378</v>
+      </c>
+      <c r="D936" t="s">
+        <v>765</v>
+      </c>
+      <c r="E936" t="s">
+        <v>380</v>
+      </c>
+      <c r="F936" t="s">
+        <v>24</v>
+      </c>
+      <c r="G936" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C937" t="s">
+        <v>378</v>
+      </c>
+      <c r="D937" t="s">
+        <v>765</v>
+      </c>
+      <c r="E937" t="s">
+        <v>380</v>
+      </c>
+      <c r="F937" t="s">
+        <v>24</v>
+      </c>
+      <c r="G937" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C938" t="s">
+        <v>378</v>
+      </c>
+      <c r="D938" t="s">
+        <v>765</v>
+      </c>
+      <c r="E938" t="s">
+        <v>380</v>
+      </c>
+      <c r="F938" t="s">
+        <v>24</v>
+      </c>
+      <c r="G938" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C939" t="s">
+        <v>378</v>
+      </c>
+      <c r="D939" t="s">
+        <v>765</v>
+      </c>
+      <c r="E939" t="s">
+        <v>380</v>
+      </c>
+      <c r="F939" t="s">
+        <v>24</v>
+      </c>
+      <c r="G939" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C940" t="s">
+        <v>378</v>
+      </c>
+      <c r="D940" t="s">
+        <v>765</v>
+      </c>
+      <c r="E940" t="s">
+        <v>380</v>
+      </c>
+      <c r="F940" t="s">
+        <v>24</v>
+      </c>
+      <c r="G940" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C941" t="s">
+        <v>378</v>
+      </c>
+      <c r="D941" t="s">
+        <v>765</v>
+      </c>
+      <c r="E941" t="s">
+        <v>380</v>
+      </c>
+      <c r="F941" t="s">
+        <v>24</v>
+      </c>
+      <c r="G941" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C942" t="s">
+        <v>378</v>
+      </c>
+      <c r="D942" t="s">
+        <v>765</v>
+      </c>
+      <c r="E942" t="s">
+        <v>380</v>
+      </c>
+      <c r="F942" t="s">
+        <v>37</v>
+      </c>
+      <c r="G942" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C943" t="s">
+        <v>378</v>
+      </c>
+      <c r="D943" t="s">
+        <v>765</v>
+      </c>
+      <c r="E943" t="s">
+        <v>380</v>
+      </c>
+      <c r="F943" t="s">
+        <v>37</v>
+      </c>
+      <c r="G943" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C944" t="s">
+        <v>378</v>
+      </c>
+      <c r="D944" t="s">
+        <v>765</v>
+      </c>
+      <c r="E944" t="s">
+        <v>380</v>
+      </c>
+      <c r="F944" t="s">
+        <v>37</v>
+      </c>
+      <c r="G944" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C945" t="s">
+        <v>378</v>
+      </c>
+      <c r="D945" t="s">
+        <v>765</v>
+      </c>
+      <c r="E945" t="s">
+        <v>380</v>
+      </c>
+      <c r="F945" t="s">
+        <v>37</v>
+      </c>
+      <c r="G945" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C946" t="s">
+        <v>378</v>
+      </c>
+      <c r="D946" t="s">
+        <v>765</v>
+      </c>
+      <c r="E946" t="s">
+        <v>380</v>
+      </c>
+      <c r="F946" t="s">
+        <v>37</v>
+      </c>
+      <c r="G946" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C947" t="s">
+        <v>378</v>
+      </c>
+      <c r="D947" t="s">
+        <v>765</v>
+      </c>
+      <c r="E947" t="s">
+        <v>380</v>
+      </c>
+      <c r="F947" t="s">
+        <v>37</v>
+      </c>
+      <c r="G947" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C948" t="s">
+        <v>378</v>
+      </c>
+      <c r="D948" t="s">
+        <v>765</v>
+      </c>
+      <c r="E948" t="s">
+        <v>380</v>
+      </c>
+      <c r="F948" t="s">
+        <v>37</v>
+      </c>
+      <c r="G948" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B949" t="s">
+        <v>851</v>
+      </c>
+      <c r="C949" t="s">
+        <v>378</v>
+      </c>
+      <c r="D949" t="s">
+        <v>765</v>
+      </c>
+      <c r="E949" t="s">
+        <v>380</v>
+      </c>
+      <c r="F949" t="s">
+        <v>136</v>
+      </c>
+      <c r="G949" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B950" t="s">
+        <v>852</v>
+      </c>
+      <c r="C950" t="s">
+        <v>378</v>
+      </c>
+      <c r="D950" t="s">
+        <v>765</v>
+      </c>
+      <c r="E950" t="s">
+        <v>380</v>
+      </c>
+      <c r="F950" t="s">
+        <v>136</v>
+      </c>
+      <c r="G950" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B951" t="s">
+        <v>853</v>
+      </c>
+      <c r="C951" t="s">
+        <v>378</v>
+      </c>
+      <c r="D951" t="s">
+        <v>765</v>
+      </c>
+      <c r="E951" t="s">
+        <v>380</v>
+      </c>
+      <c r="F951" t="s">
+        <v>136</v>
+      </c>
+      <c r="G951" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B952" t="s">
+        <v>854</v>
+      </c>
+      <c r="C952" t="s">
+        <v>378</v>
+      </c>
+      <c r="D952" t="s">
+        <v>765</v>
+      </c>
+      <c r="E952" t="s">
+        <v>380</v>
+      </c>
+      <c r="F952" t="s">
+        <v>136</v>
+      </c>
+      <c r="G952" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B953" t="s">
+        <v>855</v>
+      </c>
+      <c r="C953" t="s">
+        <v>378</v>
+      </c>
+      <c r="D953" t="s">
+        <v>765</v>
+      </c>
+      <c r="E953" t="s">
+        <v>380</v>
+      </c>
+      <c r="F953" t="s">
+        <v>136</v>
+      </c>
+      <c r="G953" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C954" t="s">
+        <v>378</v>
+      </c>
+      <c r="D954" t="s">
+        <v>765</v>
+      </c>
+      <c r="E954" t="s">
+        <v>380</v>
+      </c>
+      <c r="F954" t="s">
+        <v>136</v>
+      </c>
+      <c r="G954" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B955" t="s">
+        <v>956</v>
+      </c>
+      <c r="C955" t="s">
+        <v>378</v>
+      </c>
+      <c r="D955" t="s">
+        <v>379</v>
+      </c>
+      <c r="E955" t="s">
+        <v>380</v>
+      </c>
+      <c r="F955" t="s">
+        <v>142</v>
+      </c>
+      <c r="G955" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B956" t="s">
+        <v>962</v>
+      </c>
+      <c r="C956" t="s">
+        <v>378</v>
+      </c>
+      <c r="D956" t="s">
+        <v>379</v>
+      </c>
+      <c r="E956" t="s">
+        <v>380</v>
+      </c>
+      <c r="F956" t="s">
+        <v>142</v>
+      </c>
+      <c r="G956" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B957" t="s">
+        <v>968</v>
+      </c>
+      <c r="C957" t="s">
+        <v>378</v>
+      </c>
+      <c r="D957" t="s">
+        <v>379</v>
+      </c>
+      <c r="E957" t="s">
+        <v>380</v>
+      </c>
+      <c r="F957" t="s">
+        <v>142</v>
+      </c>
+      <c r="G957" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B958" t="s">
+        <v>973</v>
+      </c>
+      <c r="C958" t="s">
+        <v>378</v>
+      </c>
+      <c r="D958" t="s">
+        <v>379</v>
+      </c>
+      <c r="E958" t="s">
+        <v>380</v>
+      </c>
+      <c r="F958" t="s">
+        <v>142</v>
+      </c>
+      <c r="G958" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B959" t="s">
+        <v>978</v>
+      </c>
+      <c r="C959" t="s">
+        <v>378</v>
+      </c>
+      <c r="D959" t="s">
+        <v>379</v>
+      </c>
+      <c r="E959" t="s">
+        <v>380</v>
+      </c>
+      <c r="F959" t="s">
+        <v>142</v>
+      </c>
+      <c r="G959" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B960" t="s">
+        <v>984</v>
+      </c>
+      <c r="C960" t="s">
+        <v>378</v>
+      </c>
+      <c r="D960" t="s">
+        <v>379</v>
+      </c>
+      <c r="E960" t="s">
+        <v>380</v>
+      </c>
+      <c r="F960" t="s">
+        <v>142</v>
+      </c>
+      <c r="G960" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B961" t="s">
+        <v>990</v>
+      </c>
+      <c r="C961" t="s">
+        <v>378</v>
+      </c>
+      <c r="D961" t="s">
+        <v>379</v>
+      </c>
+      <c r="E961" t="s">
+        <v>380</v>
+      </c>
+      <c r="F961" t="s">
+        <v>142</v>
+      </c>
+      <c r="G961" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B962" t="s">
+        <v>957</v>
+      </c>
+      <c r="C962" t="s">
+        <v>378</v>
+      </c>
+      <c r="D962" t="s">
+        <v>379</v>
+      </c>
+      <c r="E962" t="s">
+        <v>380</v>
+      </c>
+      <c r="F962" t="s">
+        <v>154</v>
+      </c>
+      <c r="G962" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B963" t="s">
+        <v>963</v>
+      </c>
+      <c r="C963" t="s">
+        <v>378</v>
+      </c>
+      <c r="D963" t="s">
+        <v>379</v>
+      </c>
+      <c r="E963" t="s">
+        <v>380</v>
+      </c>
+      <c r="F963" t="s">
+        <v>154</v>
+      </c>
+      <c r="G963" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B964" t="s">
+        <v>969</v>
+      </c>
+      <c r="C964" t="s">
+        <v>378</v>
+      </c>
+      <c r="D964" t="s">
+        <v>379</v>
+      </c>
+      <c r="E964" t="s">
+        <v>380</v>
+      </c>
+      <c r="F964" t="s">
+        <v>154</v>
+      </c>
+      <c r="G964" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B965" t="s">
+        <v>974</v>
+      </c>
+      <c r="C965" t="s">
+        <v>378</v>
+      </c>
+      <c r="D965" t="s">
+        <v>379</v>
+      </c>
+      <c r="E965" t="s">
+        <v>380</v>
+      </c>
+      <c r="F965" t="s">
+        <v>154</v>
+      </c>
+      <c r="G965" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B966" t="s">
+        <v>979</v>
+      </c>
+      <c r="C966" t="s">
+        <v>378</v>
+      </c>
+      <c r="D966" t="s">
+        <v>379</v>
+      </c>
+      <c r="E966" t="s">
+        <v>380</v>
+      </c>
+      <c r="F966" t="s">
+        <v>154</v>
+      </c>
+      <c r="G966" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B967" t="s">
+        <v>985</v>
+      </c>
+      <c r="C967" t="s">
+        <v>378</v>
+      </c>
+      <c r="D967" t="s">
+        <v>379</v>
+      </c>
+      <c r="E967" t="s">
+        <v>380</v>
+      </c>
+      <c r="F967" t="s">
+        <v>154</v>
+      </c>
+      <c r="G967" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B968" t="s">
+        <v>991</v>
+      </c>
+      <c r="C968" t="s">
+        <v>378</v>
+      </c>
+      <c r="D968" t="s">
+        <v>379</v>
+      </c>
+      <c r="E968" t="s">
+        <v>380</v>
+      </c>
+      <c r="F968" t="s">
+        <v>154</v>
+      </c>
+      <c r="G968" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B969" t="s">
+        <v>958</v>
+      </c>
+      <c r="C969" t="s">
+        <v>378</v>
+      </c>
+      <c r="D969" t="s">
+        <v>379</v>
+      </c>
+      <c r="E969" t="s">
+        <v>380</v>
+      </c>
+      <c r="F969" t="s">
+        <v>163</v>
+      </c>
+      <c r="G969" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B970" t="s">
+        <v>964</v>
+      </c>
+      <c r="C970" t="s">
+        <v>378</v>
+      </c>
+      <c r="D970" t="s">
+        <v>379</v>
+      </c>
+      <c r="E970" t="s">
+        <v>380</v>
+      </c>
+      <c r="F970" t="s">
+        <v>163</v>
+      </c>
+      <c r="G970" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B971" t="s">
+        <v>970</v>
+      </c>
+      <c r="C971" t="s">
+        <v>378</v>
+      </c>
+      <c r="D971" t="s">
+        <v>379</v>
+      </c>
+      <c r="E971" t="s">
+        <v>380</v>
+      </c>
+      <c r="F971" t="s">
+        <v>163</v>
+      </c>
+      <c r="G971" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C972" t="s">
+        <v>378</v>
+      </c>
+      <c r="D972" t="s">
+        <v>379</v>
+      </c>
+      <c r="E972" t="s">
+        <v>380</v>
+      </c>
+      <c r="F972" t="s">
+        <v>163</v>
+      </c>
+      <c r="G972" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B973" t="s">
+        <v>980</v>
+      </c>
+      <c r="C973" t="s">
+        <v>378</v>
+      </c>
+      <c r="D973" t="s">
+        <v>379</v>
+      </c>
+      <c r="E973" t="s">
+        <v>380</v>
+      </c>
+      <c r="F973" t="s">
+        <v>163</v>
+      </c>
+      <c r="G973" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B974" t="s">
+        <v>986</v>
+      </c>
+      <c r="C974" t="s">
+        <v>378</v>
+      </c>
+      <c r="D974" t="s">
+        <v>379</v>
+      </c>
+      <c r="E974" t="s">
+        <v>380</v>
+      </c>
+      <c r="F974" t="s">
+        <v>163</v>
+      </c>
+      <c r="G974" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B975" t="s">
+        <v>992</v>
+      </c>
+      <c r="C975" t="s">
+        <v>378</v>
+      </c>
+      <c r="D975" t="s">
+        <v>379</v>
+      </c>
+      <c r="E975" t="s">
+        <v>380</v>
+      </c>
+      <c r="F975" t="s">
+        <v>163</v>
+      </c>
+      <c r="G975" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B976" t="s">
+        <v>959</v>
+      </c>
+      <c r="C976" t="s">
+        <v>378</v>
+      </c>
+      <c r="D976" t="s">
+        <v>379</v>
+      </c>
+      <c r="E976" t="s">
+        <v>380</v>
+      </c>
+      <c r="F976" t="s">
+        <v>174</v>
+      </c>
+      <c r="G976" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B977" t="s">
+        <v>965</v>
+      </c>
+      <c r="C977" t="s">
+        <v>378</v>
+      </c>
+      <c r="D977" t="s">
+        <v>379</v>
+      </c>
+      <c r="E977" t="s">
+        <v>380</v>
+      </c>
+      <c r="F977" t="s">
+        <v>174</v>
+      </c>
+      <c r="G977" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B978" t="s">
+        <v>971</v>
+      </c>
+      <c r="C978" t="s">
+        <v>378</v>
+      </c>
+      <c r="D978" t="s">
+        <v>379</v>
+      </c>
+      <c r="E978" t="s">
+        <v>380</v>
+      </c>
+      <c r="F978" t="s">
+        <v>174</v>
+      </c>
+      <c r="G978" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B979" t="s">
+        <v>975</v>
+      </c>
+      <c r="C979" t="s">
+        <v>378</v>
+      </c>
+      <c r="D979" t="s">
+        <v>379</v>
+      </c>
+      <c r="E979" t="s">
+        <v>380</v>
+      </c>
+      <c r="F979" t="s">
+        <v>174</v>
+      </c>
+      <c r="G979" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B980" t="s">
+        <v>981</v>
+      </c>
+      <c r="C980" t="s">
+        <v>378</v>
+      </c>
+      <c r="D980" t="s">
+        <v>379</v>
+      </c>
+      <c r="E980" t="s">
+        <v>380</v>
+      </c>
+      <c r="F980" t="s">
+        <v>174</v>
+      </c>
+      <c r="G980" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B981" t="s">
+        <v>987</v>
+      </c>
+      <c r="C981" t="s">
+        <v>378</v>
+      </c>
+      <c r="D981" t="s">
+        <v>379</v>
+      </c>
+      <c r="E981" t="s">
+        <v>380</v>
+      </c>
+      <c r="F981" t="s">
+        <v>174</v>
+      </c>
+      <c r="G981" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B982" t="s">
+        <v>993</v>
+      </c>
+      <c r="C982" t="s">
+        <v>378</v>
+      </c>
+      <c r="D982" t="s">
+        <v>379</v>
+      </c>
+      <c r="E982" t="s">
+        <v>380</v>
+      </c>
+      <c r="F982" t="s">
+        <v>174</v>
+      </c>
+      <c r="G982" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B983" t="s">
+        <v>960</v>
+      </c>
+      <c r="C983" t="s">
+        <v>378</v>
+      </c>
+      <c r="D983" t="s">
+        <v>379</v>
+      </c>
+      <c r="E983" t="s">
+        <v>380</v>
+      </c>
+      <c r="F983" t="s">
+        <v>183</v>
+      </c>
+      <c r="G983" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B984" t="s">
+        <v>966</v>
+      </c>
+      <c r="C984" t="s">
+        <v>378</v>
+      </c>
+      <c r="D984" t="s">
+        <v>379</v>
+      </c>
+      <c r="E984" t="s">
+        <v>380</v>
+      </c>
+      <c r="F984" t="s">
+        <v>183</v>
+      </c>
+      <c r="G984" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B985" t="s">
+        <v>972</v>
+      </c>
+      <c r="C985" t="s">
+        <v>378</v>
+      </c>
+      <c r="D985" t="s">
+        <v>379</v>
+      </c>
+      <c r="E985" t="s">
+        <v>380</v>
+      </c>
+      <c r="F985" t="s">
+        <v>183</v>
+      </c>
+      <c r="G985" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B986" t="s">
+        <v>976</v>
+      </c>
+      <c r="C986" t="s">
+        <v>378</v>
+      </c>
+      <c r="D986" t="s">
+        <v>379</v>
+      </c>
+      <c r="E986" t="s">
+        <v>380</v>
+      </c>
+      <c r="F986" t="s">
+        <v>183</v>
+      </c>
+      <c r="G986" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B987" t="s">
+        <v>982</v>
+      </c>
+      <c r="C987" t="s">
+        <v>378</v>
+      </c>
+      <c r="D987" t="s">
+        <v>379</v>
+      </c>
+      <c r="E987" t="s">
+        <v>380</v>
+      </c>
+      <c r="F987" t="s">
+        <v>183</v>
+      </c>
+      <c r="G987" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B988" t="s">
+        <v>988</v>
+      </c>
+      <c r="C988" t="s">
+        <v>378</v>
+      </c>
+      <c r="D988" t="s">
+        <v>379</v>
+      </c>
+      <c r="E988" t="s">
+        <v>380</v>
+      </c>
+      <c r="F988" t="s">
+        <v>183</v>
+      </c>
+      <c r="G988" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B989" t="s">
+        <v>994</v>
+      </c>
+      <c r="C989" t="s">
+        <v>378</v>
+      </c>
+      <c r="D989" t="s">
+        <v>379</v>
+      </c>
+      <c r="E989" t="s">
+        <v>380</v>
+      </c>
+      <c r="F989" t="s">
+        <v>183</v>
+      </c>
+      <c r="G989" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B990" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C990" t="s">
+        <v>764</v>
+      </c>
+      <c r="D990" t="s">
+        <v>916</v>
+      </c>
+      <c r="E990" t="s">
+        <v>917</v>
+      </c>
+      <c r="F990" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B991" s="16" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C991" t="s">
+        <v>764</v>
+      </c>
+      <c r="D991" t="s">
+        <v>916</v>
+      </c>
+      <c r="E991" t="s">
+        <v>917</v>
+      </c>
+      <c r="F991" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B992" s="16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C992" t="s">
+        <v>764</v>
+      </c>
+      <c r="D992" t="s">
+        <v>916</v>
+      </c>
+      <c r="E992" t="s">
+        <v>917</v>
+      </c>
+      <c r="F992" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B993" s="16" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C993" t="s">
+        <v>764</v>
+      </c>
+      <c r="D993" t="s">
+        <v>916</v>
+      </c>
+      <c r="E993" t="s">
+        <v>917</v>
+      </c>
+      <c r="F993" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B994" s="16" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C994" t="s">
+        <v>764</v>
+      </c>
+      <c r="D994" t="s">
+        <v>916</v>
+      </c>
+      <c r="E994" t="s">
+        <v>917</v>
+      </c>
+      <c r="F994" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B995" s="16" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C995" t="s">
+        <v>764</v>
+      </c>
+      <c r="D995" t="s">
+        <v>916</v>
+      </c>
+      <c r="E995" t="s">
+        <v>917</v>
+      </c>
+      <c r="F995" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B996" s="16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C996" t="s">
+        <v>764</v>
+      </c>
+      <c r="D996" t="s">
+        <v>916</v>
+      </c>
+      <c r="E996" t="s">
+        <v>917</v>
+      </c>
+      <c r="F996" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B997" s="16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C997" t="s">
+        <v>764</v>
+      </c>
+      <c r="D997" t="s">
+        <v>916</v>
+      </c>
+      <c r="E997" t="s">
+        <v>917</v>
+      </c>
+      <c r="F997" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B998" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C998" t="s">
+        <v>764</v>
+      </c>
+      <c r="D998" t="s">
+        <v>916</v>
+      </c>
+      <c r="E998" t="s">
+        <v>917</v>
+      </c>
+      <c r="F998" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B999" s="16" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C999" t="s">
+        <v>764</v>
+      </c>
+      <c r="D999" t="s">
+        <v>916</v>
+      </c>
+      <c r="E999" t="s">
+        <v>917</v>
+      </c>
+      <c r="F999" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1000" s="16" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1000" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1001" s="16" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1001" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1002" s="16" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1002" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1003" s="16" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1003" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1004" s="16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1004" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1005" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1005" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1006" s="16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1006" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1007" s="16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1007" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1008" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1008" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1009" s="16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1009" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1010" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1010" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1011" s="16" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1011" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1012" s="16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1012" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1013" s="16" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1013" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1014" s="16" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1014" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1015" s="16" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1015" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1016" s="16" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1016" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1017" s="16" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1017" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1018" s="16" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1018" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1019" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1019" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1020" s="16" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1020" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1021" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1021" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1022" s="16" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1022" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1023" s="16" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1023" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1024" s="16" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1024" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1025" s="16" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1025" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1026" s="16" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1026" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1027" s="16" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1027" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1028" s="16" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1028" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1029" s="16" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1029" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1030" s="16" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1030" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1031" s="16" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1031" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1032" s="16" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1032" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1033" s="16" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1033" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1034" s="16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1034" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1035" s="16" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1035" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1036" s="16" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1036" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1037" s="16" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1037" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1038" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1038" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1039" s="16" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1039" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1040" s="16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1040" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1041" s="16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1041" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1042" s="16" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1042" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1043" s="16" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1043" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>955</v>
+      </c>
+    </row>
     <row r="1379" spans="5:5" ht="16" x14ac:dyDescent="0.2">
       <c r="E1379" s="13"/>
     </row>

--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967E481-B3FA-4645-A0D6-0D98E91031A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE49F49-687E-324A-85E4-9A022B8FE5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="1040" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lung_panel_version_1.1" sheetId="1" r:id="rId1"/>
     <sheet name="CRC_panel_version_3.1" sheetId="2" r:id="rId2"/>
-    <sheet name="CRC_panel_version_1.1" sheetId="3" r:id="rId3"/>
-    <sheet name="CRC_panel_version_1.2" sheetId="4" r:id="rId4"/>
-    <sheet name="RASSF1" sheetId="8" r:id="rId5"/>
-    <sheet name="CRC_panel_version_2.1" sheetId="5" r:id="rId6"/>
-    <sheet name="Truong_amplicon_PBMC_v1.1" sheetId="7" r:id="rId7"/>
-    <sheet name="Runs_tracking" sheetId="6" r:id="rId8"/>
+    <sheet name="DAPK1" sheetId="9" r:id="rId3"/>
+    <sheet name="CRC_panel_version_1.1" sheetId="3" r:id="rId4"/>
+    <sheet name="CRC_panel_version_1.2" sheetId="4" r:id="rId5"/>
+    <sheet name="RASSF1" sheetId="8" r:id="rId6"/>
+    <sheet name="CRC_panel_version_2.1" sheetId="5" r:id="rId7"/>
+    <sheet name="Truong_amplicon_PBMC_v1.1" sheetId="7" r:id="rId8"/>
+    <sheet name="Runs_tracking" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7319" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7474" uniqueCount="1291">
   <si>
     <t>Amplicon</t>
   </si>
@@ -3665,168 +3666,6 @@
     <t>R7547</t>
   </si>
   <si>
-    <t>ST31_0</t>
-  </si>
-  <si>
-    <t>ST32_1</t>
-  </si>
-  <si>
-    <t>ST33_5</t>
-  </si>
-  <si>
-    <t>ST34_10</t>
-  </si>
-  <si>
-    <t>ST35_50</t>
-  </si>
-  <si>
-    <t>ST36_100</t>
-  </si>
-  <si>
-    <t>ST51_0</t>
-  </si>
-  <si>
-    <t>ST52_1</t>
-  </si>
-  <si>
-    <t>ST53_5</t>
-  </si>
-  <si>
-    <t>ST54_10</t>
-  </si>
-  <si>
-    <t>ST55_50</t>
-  </si>
-  <si>
-    <t>ST56_100</t>
-  </si>
-  <si>
-    <t>DMR41_0</t>
-  </si>
-  <si>
-    <t>DMR42_1</t>
-  </si>
-  <si>
-    <t>DMR43_5</t>
-  </si>
-  <si>
-    <t>DMR44_10</t>
-  </si>
-  <si>
-    <t>DMR45_50</t>
-  </si>
-  <si>
-    <t>DMR46_100</t>
-  </si>
-  <si>
-    <t>DMR71_0</t>
-  </si>
-  <si>
-    <t>DMR72_1</t>
-  </si>
-  <si>
-    <t>DMR73_5</t>
-  </si>
-  <si>
-    <t>DMR74_10</t>
-  </si>
-  <si>
-    <t>DMR75_50</t>
-  </si>
-  <si>
-    <t>DMR76_100</t>
-  </si>
-  <si>
-    <t>ST91_0</t>
-  </si>
-  <si>
-    <t>ST92_1</t>
-  </si>
-  <si>
-    <t>ST93_5</t>
-  </si>
-  <si>
-    <t>ST94_10</t>
-  </si>
-  <si>
-    <t>ST95_50</t>
-  </si>
-  <si>
-    <t>ST96_100</t>
-  </si>
-  <si>
-    <t>ST101_0</t>
-  </si>
-  <si>
-    <t>ST102_1</t>
-  </si>
-  <si>
-    <t>ST103_5</t>
-  </si>
-  <si>
-    <t>ST104_10</t>
-  </si>
-  <si>
-    <t>ST105_50</t>
-  </si>
-  <si>
-    <t>ST106_100</t>
-  </si>
-  <si>
-    <t>ST131_0</t>
-  </si>
-  <si>
-    <t>ST132_1</t>
-  </si>
-  <si>
-    <t>ST133_5</t>
-  </si>
-  <si>
-    <t>ST134_10</t>
-  </si>
-  <si>
-    <t>ST135_50</t>
-  </si>
-  <si>
-    <t>ST136_100</t>
-  </si>
-  <si>
-    <t>ST151_0</t>
-  </si>
-  <si>
-    <t>ST152_1</t>
-  </si>
-  <si>
-    <t>ST153_5</t>
-  </si>
-  <si>
-    <t>ST154_10</t>
-  </si>
-  <si>
-    <t>ST155_50</t>
-  </si>
-  <si>
-    <t>ST156_100</t>
-  </si>
-  <si>
-    <t>ST141_0</t>
-  </si>
-  <si>
-    <t>ST142_1</t>
-  </si>
-  <si>
-    <t>ST143_5</t>
-  </si>
-  <si>
-    <t>ST144_10</t>
-  </si>
-  <si>
-    <t>ST145_50</t>
-  </si>
-  <si>
-    <t>ST146_100</t>
-  </si>
-  <si>
     <t>R7590</t>
   </si>
   <si>
@@ -3918,13 +3757,205 @@
   </si>
   <si>
     <t>AACCCCACAATCCCTACACCCAAATTTCCATTA</t>
+  </si>
+  <si>
+    <t>ST31BCDMR</t>
+  </si>
+  <si>
+    <t>ST32BCDMR</t>
+  </si>
+  <si>
+    <t>ST33BCDMR</t>
+  </si>
+  <si>
+    <t>ST34BCDMR</t>
+  </si>
+  <si>
+    <t>ST35BCDMR</t>
+  </si>
+  <si>
+    <t>ST36BCDMR</t>
+  </si>
+  <si>
+    <t>ST51BCDMR</t>
+  </si>
+  <si>
+    <t>ST52BCDMR</t>
+  </si>
+  <si>
+    <t>ST53BCDMR</t>
+  </si>
+  <si>
+    <t>ST54BCDMR</t>
+  </si>
+  <si>
+    <t>ST55BCDMR</t>
+  </si>
+  <si>
+    <t>ST56BCDMR</t>
+  </si>
+  <si>
+    <t>DMR41BCDMR</t>
+  </si>
+  <si>
+    <t>DMR42BCDMR</t>
+  </si>
+  <si>
+    <t>DMR43BCDMR</t>
+  </si>
+  <si>
+    <t>DMR44BCDMR</t>
+  </si>
+  <si>
+    <t>DMR45BCDMR</t>
+  </si>
+  <si>
+    <t>DMR46BCDMR</t>
+  </si>
+  <si>
+    <t>DMR71BCDMR</t>
+  </si>
+  <si>
+    <t>DMR72BCDMR</t>
+  </si>
+  <si>
+    <t>DMR73BCDMR</t>
+  </si>
+  <si>
+    <t>DMR74BCDMR</t>
+  </si>
+  <si>
+    <t>DMR75BCDMR</t>
+  </si>
+  <si>
+    <t>DMR76BCDMR</t>
+  </si>
+  <si>
+    <t>ST91BCDMR</t>
+  </si>
+  <si>
+    <t>ST92BCDMR</t>
+  </si>
+  <si>
+    <t>ST93BCDMR</t>
+  </si>
+  <si>
+    <t>ST94BCDMR</t>
+  </si>
+  <si>
+    <t>ST95BCDMR</t>
+  </si>
+  <si>
+    <t>ST96BCDMR</t>
+  </si>
+  <si>
+    <t>ST101BCDMR</t>
+  </si>
+  <si>
+    <t>ST102BCDMR</t>
+  </si>
+  <si>
+    <t>ST103BCDMR</t>
+  </si>
+  <si>
+    <t>ST104BCDMR</t>
+  </si>
+  <si>
+    <t>ST105BCDMR</t>
+  </si>
+  <si>
+    <t>ST106BCDMR</t>
+  </si>
+  <si>
+    <t>ST131BCDMR</t>
+  </si>
+  <si>
+    <t>ST132BCDMR</t>
+  </si>
+  <si>
+    <t>ST133BCDMR</t>
+  </si>
+  <si>
+    <t>ST134BCDMR</t>
+  </si>
+  <si>
+    <t>ST135BCDMR</t>
+  </si>
+  <si>
+    <t>ST136BCDMR</t>
+  </si>
+  <si>
+    <t>ST151BCDMR</t>
+  </si>
+  <si>
+    <t>ST152BCDMR</t>
+  </si>
+  <si>
+    <t>ST153BCDMR</t>
+  </si>
+  <si>
+    <t>ST154BCDMR</t>
+  </si>
+  <si>
+    <t>ST155BCDMR</t>
+  </si>
+  <si>
+    <t>ST156BCDMR</t>
+  </si>
+  <si>
+    <t>ST141BCDMR</t>
+  </si>
+  <si>
+    <t>ST142BCDMR</t>
+  </si>
+  <si>
+    <t>ST143BCDMR</t>
+  </si>
+  <si>
+    <t>ST144BCDMR</t>
+  </si>
+  <si>
+    <t>ST145BCDMR</t>
+  </si>
+  <si>
+    <t>ST146BCDMR</t>
+  </si>
+  <si>
+    <t>R7724</t>
+  </si>
+  <si>
+    <t>DAPK1</t>
+  </si>
+  <si>
+    <t>TMSTS2P</t>
+  </si>
+  <si>
+    <t>TMSTS3P</t>
+  </si>
+  <si>
+    <t>TMSTS6P</t>
+  </si>
+  <si>
+    <t>TMSTS7P</t>
+  </si>
+  <si>
+    <t>chr9:87497555-87497822</t>
+  </si>
+  <si>
+    <t>chr9:90112470-90112737</t>
+  </si>
+  <si>
+    <t>TAGAATTTAGTTAGAGGGTAGTTTAGTA</t>
+  </si>
+  <si>
+    <t>AAACRACCAATAAAAACCCTACAAA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3995,8 +4026,14 @@
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4021,13 +4058,47 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4037,7 +4108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4063,6 +4134,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6469,6 +6542,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864390C9-B9DA-2D43-ACDF-76AC2DDF1D70}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -6619,7 +6741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
@@ -7106,7 +7228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7C59D0-E04F-5948-82D4-A056CB223EFE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -7135,19 +7257,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="B2" t="s">
-        <v>1277</v>
+        <v>1223</v>
       </c>
       <c r="C2" t="s">
-        <v>1278</v>
+        <v>1224</v>
       </c>
       <c r="D2" t="s">
-        <v>1279</v>
+        <v>1225</v>
       </c>
       <c r="E2" t="s">
-        <v>1280</v>
+        <v>1226</v>
       </c>
     </row>
   </sheetData>
@@ -7155,7 +7277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -7505,7 +7627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB87DAB-575F-4D14-809B-7B1AFA103D8C}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -8189,12 +8311,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
   <dimension ref="A1:G1419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1034" workbookViewId="0">
-      <selection activeCell="O1060" sqref="O1060"/>
+    <sheetView topLeftCell="A1053" workbookViewId="0">
+      <selection activeCell="I1070" sqref="I1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25280,7 +25402,7 @@
         <v>79</v>
       </c>
       <c r="G859" t="s">
-        <v>1276</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.2">
@@ -28278,7 +28400,7 @@
         <v>1195</v>
       </c>
       <c r="B990" s="16" t="s">
-        <v>1196</v>
+        <v>1227</v>
       </c>
       <c r="C990" t="s">
         <v>764</v>
@@ -28291,6 +28413,9 @@
       </c>
       <c r="F990" s="8" t="s">
         <v>297</v>
+      </c>
+      <c r="G990" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.2">
@@ -28298,7 +28423,7 @@
         <v>1195</v>
       </c>
       <c r="B991" s="16" t="s">
-        <v>1197</v>
+        <v>1228</v>
       </c>
       <c r="C991" t="s">
         <v>764</v>
@@ -28311,6 +28436,9 @@
       </c>
       <c r="F991" s="8" t="s">
         <v>297</v>
+      </c>
+      <c r="G991" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.2">
@@ -28318,7 +28446,7 @@
         <v>1195</v>
       </c>
       <c r="B992" s="16" t="s">
-        <v>1198</v>
+        <v>1229</v>
       </c>
       <c r="C992" t="s">
         <v>764</v>
@@ -28332,13 +28460,16 @@
       <c r="F992" s="8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G992" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>1195</v>
       </c>
       <c r="B993" s="16" t="s">
-        <v>1199</v>
+        <v>1230</v>
       </c>
       <c r="C993" t="s">
         <v>764</v>
@@ -28352,13 +28483,16 @@
       <c r="F993" s="8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G993" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>1195</v>
       </c>
       <c r="B994" s="16" t="s">
-        <v>1200</v>
+        <v>1231</v>
       </c>
       <c r="C994" t="s">
         <v>764</v>
@@ -28372,13 +28506,16 @@
       <c r="F994" s="8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G994" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>1195</v>
       </c>
       <c r="B995" s="16" t="s">
-        <v>1201</v>
+        <v>1232</v>
       </c>
       <c r="C995" t="s">
         <v>764</v>
@@ -28392,13 +28529,16 @@
       <c r="F995" s="8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G995" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>1195</v>
       </c>
       <c r="B996" s="16" t="s">
-        <v>1202</v>
+        <v>1233</v>
       </c>
       <c r="C996" t="s">
         <v>764</v>
@@ -28412,13 +28552,16 @@
       <c r="F996" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G996" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>1195</v>
       </c>
       <c r="B997" s="16" t="s">
-        <v>1203</v>
+        <v>1234</v>
       </c>
       <c r="C997" t="s">
         <v>764</v>
@@ -28432,13 +28575,16 @@
       <c r="F997" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G997" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>1195</v>
       </c>
       <c r="B998" s="16" t="s">
-        <v>1204</v>
+        <v>1235</v>
       </c>
       <c r="C998" t="s">
         <v>764</v>
@@ -28452,13 +28598,16 @@
       <c r="F998" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G998" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>1195</v>
       </c>
       <c r="B999" s="16" t="s">
-        <v>1205</v>
+        <v>1236</v>
       </c>
       <c r="C999" t="s">
         <v>764</v>
@@ -28472,13 +28621,16 @@
       <c r="F999" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G999" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>1195</v>
       </c>
       <c r="B1000" s="16" t="s">
-        <v>1206</v>
+        <v>1237</v>
       </c>
       <c r="C1000" t="s">
         <v>764</v>
@@ -28492,13 +28644,16 @@
       <c r="F1000" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1000" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>1195</v>
       </c>
       <c r="B1001" s="16" t="s">
-        <v>1207</v>
+        <v>1238</v>
       </c>
       <c r="C1001" t="s">
         <v>764</v>
@@ -28512,13 +28667,16 @@
       <c r="F1001" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1001" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>1195</v>
       </c>
       <c r="B1002" s="16" t="s">
-        <v>1208</v>
+        <v>1239</v>
       </c>
       <c r="C1002" t="s">
         <v>764</v>
@@ -28532,13 +28690,16 @@
       <c r="F1002" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1002" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>1195</v>
       </c>
       <c r="B1003" s="16" t="s">
-        <v>1209</v>
+        <v>1240</v>
       </c>
       <c r="C1003" t="s">
         <v>764</v>
@@ -28552,13 +28713,16 @@
       <c r="F1003" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1003" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>1195</v>
       </c>
       <c r="B1004" s="16" t="s">
-        <v>1210</v>
+        <v>1241</v>
       </c>
       <c r="C1004" t="s">
         <v>764</v>
@@ -28572,13 +28736,16 @@
       <c r="F1004" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1004" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>1195</v>
       </c>
       <c r="B1005" s="16" t="s">
-        <v>1211</v>
+        <v>1242</v>
       </c>
       <c r="C1005" t="s">
         <v>764</v>
@@ -28592,13 +28759,16 @@
       <c r="F1005" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1005" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>1195</v>
       </c>
       <c r="B1006" s="16" t="s">
-        <v>1212</v>
+        <v>1243</v>
       </c>
       <c r="C1006" t="s">
         <v>764</v>
@@ -28612,13 +28782,16 @@
       <c r="F1006" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1006" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>1195</v>
       </c>
       <c r="B1007" s="16" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
       <c r="C1007" t="s">
         <v>764</v>
@@ -28632,13 +28805,16 @@
       <c r="F1007" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1007" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>1195</v>
       </c>
       <c r="B1008" s="16" t="s">
-        <v>1214</v>
+        <v>1245</v>
       </c>
       <c r="C1008" t="s">
         <v>764</v>
@@ -28652,13 +28828,16 @@
       <c r="F1008" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1008" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>1195</v>
       </c>
       <c r="B1009" s="16" t="s">
-        <v>1215</v>
+        <v>1246</v>
       </c>
       <c r="C1009" t="s">
         <v>764</v>
@@ -28672,13 +28851,16 @@
       <c r="F1009" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1009" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>1195</v>
       </c>
       <c r="B1010" s="16" t="s">
-        <v>1216</v>
+        <v>1247</v>
       </c>
       <c r="C1010" t="s">
         <v>764</v>
@@ -28692,13 +28874,16 @@
       <c r="F1010" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1010" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>1195</v>
       </c>
       <c r="B1011" s="16" t="s">
-        <v>1217</v>
+        <v>1248</v>
       </c>
       <c r="C1011" t="s">
         <v>764</v>
@@ -28712,13 +28897,16 @@
       <c r="F1011" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1011" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>1195</v>
       </c>
       <c r="B1012" s="16" t="s">
-        <v>1218</v>
+        <v>1249</v>
       </c>
       <c r="C1012" t="s">
         <v>764</v>
@@ -28732,13 +28920,16 @@
       <c r="F1012" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1012" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>1195</v>
       </c>
       <c r="B1013" s="16" t="s">
-        <v>1219</v>
+        <v>1250</v>
       </c>
       <c r="C1013" t="s">
         <v>764</v>
@@ -28752,13 +28943,16 @@
       <c r="F1013" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1013" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>1144</v>
       </c>
       <c r="B1014" s="16" t="s">
-        <v>1220</v>
+        <v>1251</v>
       </c>
       <c r="C1014" t="s">
         <v>764</v>
@@ -28772,13 +28966,16 @@
       <c r="F1014" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1014" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>1144</v>
       </c>
       <c r="B1015" s="16" t="s">
-        <v>1221</v>
+        <v>1252</v>
       </c>
       <c r="C1015" t="s">
         <v>764</v>
@@ -28792,13 +28989,16 @@
       <c r="F1015" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1015" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>1144</v>
       </c>
       <c r="B1016" s="16" t="s">
-        <v>1222</v>
+        <v>1253</v>
       </c>
       <c r="C1016" t="s">
         <v>764</v>
@@ -28812,13 +29012,16 @@
       <c r="F1016" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1016" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>1144</v>
       </c>
       <c r="B1017" s="16" t="s">
-        <v>1223</v>
+        <v>1254</v>
       </c>
       <c r="C1017" t="s">
         <v>764</v>
@@ -28832,13 +29035,16 @@
       <c r="F1017" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1017" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>1144</v>
       </c>
       <c r="B1018" s="16" t="s">
-        <v>1224</v>
+        <v>1255</v>
       </c>
       <c r="C1018" t="s">
         <v>764</v>
@@ -28852,13 +29058,16 @@
       <c r="F1018" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1018" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>1144</v>
       </c>
       <c r="B1019" s="16" t="s">
-        <v>1225</v>
+        <v>1256</v>
       </c>
       <c r="C1019" t="s">
         <v>764</v>
@@ -28872,13 +29081,16 @@
       <c r="F1019" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1019" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>1144</v>
       </c>
       <c r="B1020" s="16" t="s">
-        <v>1226</v>
+        <v>1257</v>
       </c>
       <c r="C1020" t="s">
         <v>764</v>
@@ -28892,13 +29104,16 @@
       <c r="F1020" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1020" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>1144</v>
       </c>
       <c r="B1021" s="16" t="s">
-        <v>1227</v>
+        <v>1258</v>
       </c>
       <c r="C1021" t="s">
         <v>764</v>
@@ -28912,13 +29127,16 @@
       <c r="F1021" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1021" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>1144</v>
       </c>
       <c r="B1022" s="16" t="s">
-        <v>1228</v>
+        <v>1259</v>
       </c>
       <c r="C1022" t="s">
         <v>764</v>
@@ -28932,13 +29150,16 @@
       <c r="F1022" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1022" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>1144</v>
       </c>
       <c r="B1023" s="16" t="s">
-        <v>1229</v>
+        <v>1260</v>
       </c>
       <c r="C1023" t="s">
         <v>764</v>
@@ -28952,13 +29173,16 @@
       <c r="F1023" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1023" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>1144</v>
       </c>
       <c r="B1024" s="16" t="s">
-        <v>1230</v>
+        <v>1261</v>
       </c>
       <c r="C1024" t="s">
         <v>764</v>
@@ -28972,13 +29196,16 @@
       <c r="F1024" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1024" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>1144</v>
       </c>
       <c r="B1025" s="16" t="s">
-        <v>1231</v>
+        <v>1262</v>
       </c>
       <c r="C1025" t="s">
         <v>764</v>
@@ -28992,13 +29219,16 @@
       <c r="F1025" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1025" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>1144</v>
       </c>
       <c r="B1026" s="16" t="s">
-        <v>1232</v>
+        <v>1263</v>
       </c>
       <c r="C1026" t="s">
         <v>764</v>
@@ -29012,13 +29242,16 @@
       <c r="F1026" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1026" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>1144</v>
       </c>
       <c r="B1027" s="16" t="s">
-        <v>1233</v>
+        <v>1264</v>
       </c>
       <c r="C1027" t="s">
         <v>764</v>
@@ -29032,13 +29265,16 @@
       <c r="F1027" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1027" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>1144</v>
       </c>
       <c r="B1028" s="16" t="s">
-        <v>1234</v>
+        <v>1265</v>
       </c>
       <c r="C1028" t="s">
         <v>764</v>
@@ -29052,13 +29288,16 @@
       <c r="F1028" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1028" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>1144</v>
       </c>
       <c r="B1029" s="16" t="s">
-        <v>1235</v>
+        <v>1266</v>
       </c>
       <c r="C1029" t="s">
         <v>764</v>
@@ -29072,13 +29311,16 @@
       <c r="F1029" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1029" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>1144</v>
       </c>
       <c r="B1030" s="16" t="s">
-        <v>1236</v>
+        <v>1267</v>
       </c>
       <c r="C1030" t="s">
         <v>764</v>
@@ -29092,13 +29334,16 @@
       <c r="F1030" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1030" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>1144</v>
       </c>
       <c r="B1031" s="16" t="s">
-        <v>1237</v>
+        <v>1268</v>
       </c>
       <c r="C1031" t="s">
         <v>764</v>
@@ -29112,13 +29357,16 @@
       <c r="F1031" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1031" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>1144</v>
       </c>
       <c r="B1032" s="16" t="s">
-        <v>1238</v>
+        <v>1269</v>
       </c>
       <c r="C1032" t="s">
         <v>764</v>
@@ -29132,13 +29380,16 @@
       <c r="F1032" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1032" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>1144</v>
       </c>
       <c r="B1033" s="16" t="s">
-        <v>1239</v>
+        <v>1270</v>
       </c>
       <c r="C1033" t="s">
         <v>764</v>
@@ -29152,13 +29403,16 @@
       <c r="F1033" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1033" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>1144</v>
       </c>
       <c r="B1034" s="16" t="s">
-        <v>1240</v>
+        <v>1271</v>
       </c>
       <c r="C1034" t="s">
         <v>764</v>
@@ -29172,13 +29426,16 @@
       <c r="F1034" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1034" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>1144</v>
       </c>
       <c r="B1035" s="16" t="s">
-        <v>1241</v>
+        <v>1272</v>
       </c>
       <c r="C1035" t="s">
         <v>764</v>
@@ -29192,13 +29449,16 @@
       <c r="F1035" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1035" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>1144</v>
       </c>
       <c r="B1036" s="16" t="s">
-        <v>1242</v>
+        <v>1273</v>
       </c>
       <c r="C1036" t="s">
         <v>764</v>
@@ -29212,13 +29472,16 @@
       <c r="F1036" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1036" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>1144</v>
       </c>
       <c r="B1037" s="16" t="s">
-        <v>1243</v>
+        <v>1274</v>
       </c>
       <c r="C1037" t="s">
         <v>764</v>
@@ -29232,13 +29495,16 @@
       <c r="F1037" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1037" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>1155</v>
       </c>
       <c r="B1038" s="16" t="s">
-        <v>1244</v>
+        <v>1275</v>
       </c>
       <c r="C1038" t="s">
         <v>764</v>
@@ -29252,13 +29518,16 @@
       <c r="F1038" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1038" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>1155</v>
       </c>
       <c r="B1039" s="16" t="s">
-        <v>1245</v>
+        <v>1276</v>
       </c>
       <c r="C1039" t="s">
         <v>764</v>
@@ -29272,13 +29541,16 @@
       <c r="F1039" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1039" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>1155</v>
       </c>
       <c r="B1040" s="16" t="s">
-        <v>1246</v>
+        <v>1277</v>
       </c>
       <c r="C1040" t="s">
         <v>764</v>
@@ -29291,6 +29563,9 @@
       </c>
       <c r="F1040" s="8" t="s">
         <v>367</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
@@ -29298,7 +29573,7 @@
         <v>1155</v>
       </c>
       <c r="B1041" s="16" t="s">
-        <v>1247</v>
+        <v>1278</v>
       </c>
       <c r="C1041" t="s">
         <v>764</v>
@@ -29311,6 +29586,9 @@
       </c>
       <c r="F1041" s="8" t="s">
         <v>367</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
@@ -29318,7 +29596,7 @@
         <v>1155</v>
       </c>
       <c r="B1042" s="16" t="s">
-        <v>1248</v>
+        <v>1279</v>
       </c>
       <c r="C1042" t="s">
         <v>764</v>
@@ -29331,6 +29609,9 @@
       </c>
       <c r="F1042" s="8" t="s">
         <v>367</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
@@ -29338,7 +29619,7 @@
         <v>1155</v>
       </c>
       <c r="B1043" s="16" t="s">
-        <v>1249</v>
+        <v>1280</v>
       </c>
       <c r="C1043" t="s">
         <v>764</v>
@@ -29352,13 +29633,16 @@
       <c r="F1043" s="8" t="s">
         <v>367</v>
       </c>
+      <c r="G1043" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1044" t="s">
-        <v>1251</v>
+        <v>1197</v>
       </c>
       <c r="C1044" t="s">
         <v>378</v>
@@ -29378,10 +29662,10 @@
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1045" t="s">
-        <v>1252</v>
+        <v>1198</v>
       </c>
       <c r="C1045" t="s">
         <v>378</v>
@@ -29401,10 +29685,10 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1046" t="s">
-        <v>1253</v>
+        <v>1199</v>
       </c>
       <c r="C1046" t="s">
         <v>378</v>
@@ -29424,10 +29708,10 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1047" t="s">
-        <v>1254</v>
+        <v>1200</v>
       </c>
       <c r="C1047" t="s">
         <v>378</v>
@@ -29447,10 +29731,10 @@
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1048" t="s">
-        <v>1255</v>
+        <v>1201</v>
       </c>
       <c r="C1048" t="s">
         <v>378</v>
@@ -29470,10 +29754,10 @@
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1049" t="s">
-        <v>1256</v>
+        <v>1202</v>
       </c>
       <c r="C1049" t="s">
         <v>378</v>
@@ -29493,10 +29777,10 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1050" t="s">
-        <v>1257</v>
+        <v>1203</v>
       </c>
       <c r="C1050" t="s">
         <v>378</v>
@@ -29516,10 +29800,10 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1051" t="s">
-        <v>1258</v>
+        <v>1204</v>
       </c>
       <c r="C1051" t="s">
         <v>378</v>
@@ -29539,10 +29823,10 @@
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1052" t="s">
-        <v>1259</v>
+        <v>1205</v>
       </c>
       <c r="C1052" t="s">
         <v>378</v>
@@ -29562,10 +29846,10 @@
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1053" t="s">
-        <v>1260</v>
+        <v>1206</v>
       </c>
       <c r="C1053" t="s">
         <v>378</v>
@@ -29585,10 +29869,10 @@
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1054" t="s">
-        <v>1261</v>
+        <v>1207</v>
       </c>
       <c r="C1054" t="s">
         <v>378</v>
@@ -29608,10 +29892,10 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1055" t="s">
-        <v>1262</v>
+        <v>1208</v>
       </c>
       <c r="C1055" t="s">
         <v>378</v>
@@ -29631,10 +29915,10 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1056" t="s">
-        <v>1263</v>
+        <v>1209</v>
       </c>
       <c r="C1056" t="s">
         <v>378</v>
@@ -29654,10 +29938,10 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>1250</v>
+        <v>1196</v>
       </c>
       <c r="B1057" t="s">
-        <v>1264</v>
+        <v>1210</v>
       </c>
       <c r="C1057" t="s">
         <v>378</v>
@@ -29677,22 +29961,22 @@
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1058" t="s">
-        <v>1266</v>
+        <v>1212</v>
       </c>
       <c r="C1058" t="s">
         <v>378</v>
       </c>
       <c r="D1058" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1058" t="s">
         <v>380</v>
       </c>
       <c r="F1058" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1058" t="s">
         <v>211</v>
@@ -29700,22 +29984,22 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1059" t="s">
-        <v>1268</v>
+        <v>1214</v>
       </c>
       <c r="C1059" t="s">
         <v>378</v>
       </c>
       <c r="D1059" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1059" t="s">
         <v>380</v>
       </c>
       <c r="F1059" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1059" t="s">
         <v>242</v>
@@ -29723,22 +30007,22 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1060" t="s">
-        <v>1269</v>
+        <v>1215</v>
       </c>
       <c r="C1060" t="s">
         <v>378</v>
       </c>
       <c r="D1060" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1060" t="s">
         <v>380</v>
       </c>
       <c r="F1060" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1060" t="s">
         <v>211</v>
@@ -29746,22 +30030,22 @@
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1061" t="s">
-        <v>1270</v>
+        <v>1216</v>
       </c>
       <c r="C1061" t="s">
         <v>378</v>
       </c>
       <c r="D1061" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1061" t="s">
         <v>380</v>
       </c>
       <c r="F1061" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1061" t="s">
         <v>212</v>
@@ -29769,22 +30053,22 @@
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1062" t="s">
-        <v>1271</v>
+        <v>1217</v>
       </c>
       <c r="C1062" t="s">
         <v>378</v>
       </c>
       <c r="D1062" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1062" t="s">
         <v>380</v>
       </c>
       <c r="F1062" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1062" t="s">
         <v>214</v>
@@ -29792,22 +30076,22 @@
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1063" t="s">
-        <v>1272</v>
+        <v>1218</v>
       </c>
       <c r="C1063" t="s">
         <v>378</v>
       </c>
       <c r="D1063" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1063" t="s">
         <v>380</v>
       </c>
       <c r="F1063" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1063" t="s">
         <v>242</v>
@@ -29815,22 +30099,22 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1064" t="s">
-        <v>1273</v>
+        <v>1219</v>
       </c>
       <c r="C1064" t="s">
         <v>378</v>
       </c>
       <c r="D1064" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1064" t="s">
         <v>380</v>
       </c>
       <c r="F1064" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1064" t="s">
         <v>247</v>
@@ -29838,22 +30122,22 @@
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1065" t="s">
-        <v>1274</v>
+        <v>1220</v>
       </c>
       <c r="C1065" t="s">
         <v>378</v>
       </c>
       <c r="D1065" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1065" t="s">
         <v>380</v>
       </c>
       <c r="F1065" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1065" t="s">
         <v>953</v>
@@ -29861,24 +30145,323 @@
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="B1066" t="s">
-        <v>1275</v>
+        <v>1221</v>
       </c>
       <c r="C1066" t="s">
         <v>378</v>
       </c>
       <c r="D1066" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="E1066" t="s">
         <v>380</v>
       </c>
       <c r="F1066" t="s">
-        <v>1267</v>
+        <v>1213</v>
       </c>
       <c r="G1066" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1067" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1067" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1068" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1068" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1068" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1069" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1069" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1069" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1070" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1070" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1071" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1071" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1072" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1072" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1072" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1073" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1073" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1073" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1074" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1074" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1075" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1075" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1076" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1076" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1077" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1077" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1077" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1078" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1078" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1079" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1079" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1079" t="s">
         <v>955</v>
       </c>
     </row>

--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE49F49-687E-324A-85E4-9A022B8FE5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5938FF-3783-814E-8A84-242A9D7037EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1040" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="1040" windowWidth="28800" windowHeight="17500" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lung_panel_version_1.1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7474" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7558" uniqueCount="1300">
   <si>
     <t>Amplicon</t>
   </si>
@@ -3949,6 +3949,33 @@
   </si>
   <si>
     <t>AAACRACCAATAAAAACCCTACAAA</t>
+  </si>
+  <si>
+    <t>R7761</t>
+  </si>
+  <si>
+    <t>DM4S1</t>
+  </si>
+  <si>
+    <t>DM4S2</t>
+  </si>
+  <si>
+    <t>DM4S3</t>
+  </si>
+  <si>
+    <t>DM4S4</t>
+  </si>
+  <si>
+    <t>DM4S5</t>
+  </si>
+  <si>
+    <t>DM4S6</t>
+  </si>
+  <si>
+    <t>R7771</t>
+  </si>
+  <si>
+    <t>TMSTS5P</t>
   </si>
 </sst>
 </file>
@@ -4065,7 +4092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4101,6 +4128,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4108,7 +4181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4136,6 +4209,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6545,7 +6622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864390C9-B9DA-2D43-ACDF-76AC2DDF1D70}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -8315,8 +8392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
   <dimension ref="A1:G1419"/>
   <sheetViews>
-    <sheetView topLeftCell="A1053" workbookViewId="0">
-      <selection activeCell="I1070" sqref="I1070"/>
+    <sheetView tabSelected="1" topLeftCell="A1053" workbookViewId="0">
+      <selection activeCell="E1081" sqref="E1081:E1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30465,6 +30542,282 @@
         <v>955</v>
       </c>
     </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1080" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1080" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1080" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1080" s="20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G1080" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1081" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1081" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1081" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1081" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1081" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1082" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1082" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1082" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1082" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1082" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1083" s="16" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1083" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1083" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1083" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1083" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1084" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1084" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1084" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1084" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1084" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1085" s="16" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1085" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1085" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1085" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1085" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1086" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1087" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1088" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1088" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1089" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1090" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1091" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>955</v>
+      </c>
+    </row>
     <row r="1379" spans="5:5" ht="16" x14ac:dyDescent="0.2">
       <c r="E1379" s="13"/>
     </row>

--- a/panel_design/All_panel_designs_20250601.xlsx
+++ b/panel_design/All_panel_designs_20250601.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5938FF-3783-814E-8A84-242A9D7037EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375C0223-89AC-4740-8126-7798FF5DA76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1040" windowWidth="28800" windowHeight="17500" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lung_panel_version_1.1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7558" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7642" uniqueCount="1313">
   <si>
     <t>Amplicon</t>
   </si>
@@ -3977,12 +3977,51 @@
   <si>
     <t>TMSTS5P</t>
   </si>
+  <si>
+    <t>R7887</t>
+  </si>
+  <si>
+    <t>TMSTS1PI1</t>
+  </si>
+  <si>
+    <t>TMSTS2PI1</t>
+  </si>
+  <si>
+    <t>TMSTS3PI1</t>
+  </si>
+  <si>
+    <t>TMSTS4PI1</t>
+  </si>
+  <si>
+    <t>TMSTS5PI1</t>
+  </si>
+  <si>
+    <t>TMSTS6PI1</t>
+  </si>
+  <si>
+    <t>TMSTS1PI2</t>
+  </si>
+  <si>
+    <t>TMSTS2PI2</t>
+  </si>
+  <si>
+    <t>TMSTS3PI2</t>
+  </si>
+  <si>
+    <t>TMSTS4PI2</t>
+  </si>
+  <si>
+    <t>TMSTS5PI2</t>
+  </si>
+  <si>
+    <t>TMSTS6PI2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4059,8 +4098,14 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4088,6 +4133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -4181,7 +4232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4213,6 +4264,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8392,8 +8444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072590D-8247-454B-84EF-7B94F7FED1DF}">
   <dimension ref="A1:G1419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1053" workbookViewId="0">
-      <selection activeCell="E1081" sqref="E1081:E1085"/>
+    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
+      <selection activeCell="J1094" sqref="J1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30818,6 +30870,282 @@
         <v>955</v>
       </c>
     </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1092" s="23" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1092" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1093" s="23" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1093" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1094" s="23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1094" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1095" s="23" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1095" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1096" s="23" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1096" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1097" s="23" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1097" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1097" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1098" s="23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1098" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1099" s="23" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1099" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1100" s="23" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1100" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1101" s="23" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1101" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1102" s="23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1102" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1103" s="23" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1103" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>953</v>
+      </c>
+    </row>
     <row r="1379" spans="5:5" ht="16" x14ac:dyDescent="0.2">
       <c r="E1379" s="13"/>
     </row>
